--- a/convert/origin/data.xlsx
+++ b/convert/origin/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11001044\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\日立造船\02_支給\01_発注主\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958D804C-9D23-4021-B58F-CAC705BC074D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE80852-393D-43D4-A741-4594766223DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="586" xr2:uid="{19524DF3-9E90-48CC-9147-1C7B375E8DD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="586" xr2:uid="{19524DF3-9E90-48CC-9147-1C7B375E8DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="モニター文記入一覧1203" sheetId="26" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="WindowOffset">[2]calcs!$D$26</definedName>
     <definedName name="タイトル1">[1]!アクティビティ[[#Headers],[活動]]</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="455">
   <si>
     <t>AR番号</t>
     <rPh sb="2" eb="4">
@@ -910,17 +910,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Power to Gas
-メタネーション装置・水素発生装置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Power to Gas
-Methanation Equipment/
-Hydrogen Generation Systems</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次世代エネルギー</t>
     <rPh sb="0" eb="3">
       <t>ジセダイ</t>
@@ -1098,10 +1087,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>街をきれいにしながら熱と電気を生み出す
-世界シェアNo.1の技術</t>
-  </si>
-  <si>
     <t>ごみを燃やして衛生的に処理すると同時に、エネルギー資源として発電する施設です。
 ごみを燃やした後に残る灰はセメント原料や土木資材などに活用します。</t>
     <phoneticPr fontId="1"/>
@@ -1235,11 +1220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>二酸化炭素排出を抑え、森林・山里を保全する
-国産エネルギー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>森林整備の過程で発生した未利用材を利用して「直接燃焼」したり「ガス化」することで発電しエネルギーとして利用することができます。未利用材が有価になることで、放置された未利用材による河川の流木被害を防ぐ効果も期待できます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1493,10 +1473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水質を守りつつ、資源として有効活用する
-循環型社会を支える水処理システム</t>
-  </si>
-  <si>
     <t>水処理システムは水の循環を守る重要な機能です。し尿などの廃棄物は資源化して地域の自然と周辺環境の調和を図り、
 最終処分場（ごみ埋立地）から排出される浸出水を処理するなど、水質を守りながら水循環の構築に貢献しています。</t>
   </si>
@@ -1843,32 +1819,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>これまで困難とされていた陸上で海水魚を養殖するシステムです。</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>地下から汲み上げた海水に近い塩分を含む</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>地下海水を利用した独自の循環水処理システムを導入することで、水温・水質をコントロールし、一年中魚の生育に最適な環境を保つことができます。</t>
-    </r>
-  </si>
-  <si>
     <t>サバの生食</t>
     <rPh sb="3" eb="5">
       <t>ナマショク</t>
@@ -2139,11 +2089,6 @@
   </si>
   <si>
     <t>エネルギーをサポート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原子力発電エネルギーの供給に欠かせない
-安全安心に使用済燃料を貯蔵</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2408,14 +2353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>舶用ディーゼルエンジン
-/舶用SCRシステム</t>
-    <rPh sb="0" eb="2">
-      <t>ハクヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Marine diesel engines/SCR (Selective Catalytic Reduction) System for Marine Engines</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3411,6 +3348,106 @@
   <si>
     <t>Water treatment system for
 land farms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>これまで困難とされていた陸上で海水魚を養殖するシステムです。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>地下海水を利用した独自の循環水処理システムを導入することで、水温・水質をコントロールし、一年中魚の生育に最適な環境を保つことができます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power to Gas Methanation Equipment/
+Hydrogen Generation Systems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power to Gasメタネーション装置・水素発生装置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街をきれいにしながら熱と電気を生み出す世界シェアNo.1の技術</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二酸化炭素排出を抑え、森林・山里を保全する国産エネルギー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水質を守りつつ、資源として有効活用する循環型社会を支える水処理システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原子力発電エネルギーの供給に欠かせない安全安心に使用済燃料を貯蔵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舶用ディーゼルエンジン/舶用SCRシステム</t>
+    <rPh sb="0" eb="2">
+      <t>ハクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main2_3.mp4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main2_3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main2_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main2_3.JPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trend2.mp4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trend2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trend2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trend2.JPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point1.mp4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point1.JPG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3418,7 +3455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3576,14 +3613,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4073,6 +4102,18 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4091,10 +4132,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4185,18 +4226,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4590,10 +4619,10 @@
   <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomRight" activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -4608,7 +4637,7 @@
     <col min="9" max="9" width="5.75" style="10" customWidth="1"/>
     <col min="10" max="10" width="156.125" style="5" customWidth="1"/>
     <col min="11" max="11" width="5.75" style="10" customWidth="1"/>
-    <col min="12" max="12" width="30.75" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.25" style="9" customWidth="1"/>
     <col min="13" max="13" width="40.75" style="5" customWidth="1"/>
     <col min="14" max="14" width="10.75" style="10" customWidth="1"/>
     <col min="15" max="15" width="40.75" style="5" customWidth="1"/>
@@ -4617,14 +4646,14 @@
     <col min="18" max="18" width="10.75" style="10" customWidth="1"/>
     <col min="19" max="19" width="80.75" style="5" customWidth="1"/>
     <col min="20" max="20" width="5.75" style="10" customWidth="1"/>
-    <col min="21" max="21" width="30.75" style="9" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22.875" style="9" customWidth="1"/>
     <col min="22" max="22" width="65.75" style="5" customWidth="1"/>
     <col min="23" max="23" width="4.75" style="10" customWidth="1"/>
     <col min="24" max="24" width="3.75" style="10" customWidth="1"/>
     <col min="25" max="32" width="11.75" style="9" customWidth="1"/>
     <col min="33" max="33" width="90.75" style="5" customWidth="1"/>
     <col min="34" max="34" width="5.75" style="10" customWidth="1"/>
-    <col min="35" max="35" width="30.75" style="9" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5" style="9" customWidth="1"/>
     <col min="36" max="36" width="60.75" style="5" customWidth="1"/>
     <col min="37" max="37" width="5.75" style="10" customWidth="1"/>
     <col min="38" max="38" width="14.875" style="9" customWidth="1"/>
@@ -4783,7 +4812,9 @@
         <f t="shared" ref="K2:K4" si="1">LEN(J2)</f>
         <v>91</v>
       </c>
-      <c r="L2" s="41"/>
+      <c r="L2" s="41" t="s">
+        <v>442</v>
+      </c>
       <c r="M2" s="43" t="s">
         <v>33</v>
       </c>
@@ -4812,7 +4843,9 @@
         <f t="shared" ref="T2:T38" si="5">LEN(S2)</f>
         <v>80</v>
       </c>
-      <c r="U2" s="41"/>
+      <c r="U2" s="41" t="s">
+        <v>446</v>
+      </c>
       <c r="V2" s="67" t="s">
         <v>37</v>
       </c>
@@ -4841,14 +4874,16 @@
       <c r="AD2" s="61"/>
       <c r="AE2" s="61"/>
       <c r="AF2" s="61"/>
-      <c r="AG2" s="95" t="s">
+      <c r="AG2" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="97">
+      <c r="AH2" s="101">
         <f t="shared" ref="AH2:AH38" si="7">LEN(AG2)</f>
         <v>133</v>
       </c>
-      <c r="AI2" s="41"/>
+      <c r="AI2" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ2" s="67" t="s">
         <v>44</v>
       </c>
@@ -4856,16 +4891,16 @@
         <f t="shared" ref="AK2:AK38" si="8">LEN(AJ2)</f>
         <v>57</v>
       </c>
-      <c r="AL2" s="101" t="s">
+      <c r="AL2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="103" t="s">
+      <c r="AM2" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="105" t="s">
+      <c r="AN2" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="AO2" s="105" t="s">
+      <c r="AO2" s="109" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4917,15 +4952,15 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="62"/>
       <c r="AF3" s="62"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="98"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="102"/>
       <c r="AI3" s="41"/>
       <c r="AJ3" s="68"/>
       <c r="AK3" s="56"/>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
     </row>
     <row r="4" spans="1:43" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="63">
@@ -4963,7 +4998,9 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="41" t="s">
+        <v>442</v>
+      </c>
       <c r="M4" s="43" t="s">
         <v>57</v>
       </c>
@@ -4992,7 +5029,9 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="U4" s="41"/>
+      <c r="U4" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V4" s="67" t="s">
         <v>61</v>
       </c>
@@ -5024,7 +5063,9 @@
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="AI4" s="41"/>
+      <c r="AI4" s="41" t="s">
+        <v>451</v>
+      </c>
       <c r="AJ4" s="67" t="s">
         <v>66</v>
       </c>
@@ -5032,16 +5073,16 @@
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
-      <c r="AL4" s="101" t="s">
+      <c r="AL4" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM4" s="103" t="s">
+      <c r="AM4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AN4" s="105" t="s">
+      <c r="AN4" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="AO4" s="105" t="s">
+      <c r="AO4" s="109" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5098,10 +5139,10 @@
       <c r="AI5" s="41"/>
       <c r="AJ5" s="68"/>
       <c r="AK5" s="56"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
     </row>
     <row r="6" spans="1:43" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="63">
@@ -5168,7 +5209,9 @@
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="U6" s="41"/>
+      <c r="U6" s="41" t="s">
+        <v>448</v>
+      </c>
       <c r="V6" s="67" t="s">
         <v>83</v>
       </c>
@@ -5206,7 +5249,9 @@
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="AI6" s="41"/>
+      <c r="AI6" s="41" t="s">
+        <v>452</v>
+      </c>
       <c r="AJ6" s="67" t="s">
         <v>90</v>
       </c>
@@ -5214,16 +5259,16 @@
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
-      <c r="AL6" s="101" t="s">
+      <c r="AL6" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM6" s="103" t="s">
+      <c r="AM6" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="AN6" s="105" t="s">
+      <c r="AN6" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="AO6" s="105" t="s">
+      <c r="AO6" s="109" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5280,10 +5325,10 @@
       <c r="AI7" s="41"/>
       <c r="AJ7" s="68"/>
       <c r="AK7" s="56"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="104"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="108"/>
+      <c r="AN7" s="110"/>
+      <c r="AO7" s="110"/>
     </row>
     <row r="8" spans="1:43" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="63">
@@ -5293,10 +5338,10 @@
         <v>96</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>98</v>
+        <v>435</v>
       </c>
       <c r="E8" s="71" t="s">
         <v>75</v>
@@ -5305,54 +5350,58 @@
         <v>29</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="55">
         <f>LEN(H8)</f>
         <v>31</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K8" s="75">
         <f>LEN(J8)</f>
         <v>115</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M8" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N8" s="42">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="O8" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P8" s="42">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R8" s="42">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S8" s="67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T8" s="65">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="U8" s="41"/>
+      <c r="U8" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V8" s="67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W8" s="65">
         <f t="shared" si="6"/>
@@ -5362,10 +5411,10 @@
         <v>7</v>
       </c>
       <c r="Y8" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Z8" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA8" s="61" t="s">
         <v>41</v>
@@ -5374,41 +5423,43 @@
         <v>86</v>
       </c>
       <c r="AC8" s="61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AD8" s="61" t="s">
         <v>85</v>
       </c>
       <c r="AE8" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF8" s="61"/>
       <c r="AG8" s="67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH8" s="65">
         <f t="shared" si="7"/>
         <v>123</v>
       </c>
-      <c r="AI8" s="41"/>
+      <c r="AI8" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ8" s="67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK8" s="55">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
-      <c r="AL8" s="101" t="s">
+      <c r="AL8" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM8" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO8" s="109" t="s">
         <v>113</v>
-      </c>
-      <c r="AM8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN8" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO8" s="105" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="23" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
@@ -5425,21 +5476,21 @@
       <c r="K9" s="76"/>
       <c r="L9" s="41"/>
       <c r="M9" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N9" s="42">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="O9" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P9" s="42">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R9" s="42">
         <f t="shared" si="17"/>
@@ -5464,79 +5515,81 @@
       <c r="AI9" s="41"/>
       <c r="AJ9" s="68"/>
       <c r="AK9" s="56"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="108"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
     </row>
     <row r="10" spans="1:43" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="63">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="E10" s="71" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>122</v>
       </c>
       <c r="F10" s="69" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>124</v>
+        <v>437</v>
       </c>
       <c r="I10" s="75">
         <f>LEN(H10)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K10" s="55">
         <f>LEN(J10)</f>
         <v>73</v>
       </c>
-      <c r="L10" s="41"/>
+      <c r="L10" s="41" t="s">
+        <v>444</v>
+      </c>
       <c r="M10" s="43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N10" s="42">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="O10" s="43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P10" s="42">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R10" s="42">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="S10" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="T10" s="93">
+      <c r="S10" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="97">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="U10" s="41"/>
       <c r="V10" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W10" s="65">
         <f t="shared" si="6"/>
@@ -5546,13 +5599,13 @@
         <v>6</v>
       </c>
       <c r="Y10" s="61" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z10" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA10" s="61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AB10" s="61" t="s">
         <v>41</v>
@@ -5561,36 +5614,38 @@
         <v>86</v>
       </c>
       <c r="AD10" s="61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AE10" s="61"/>
       <c r="AF10" s="61"/>
       <c r="AG10" s="67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AH10" s="65">
         <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="AI10" s="41"/>
+      <c r="AI10" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ10" s="67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK10" s="55">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="AL10" s="101" t="s">
+      <c r="AL10" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM10" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN10" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO10" s="105" t="s">
-        <v>138</v>
+      <c r="AM10" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN10" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO10" s="109" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -5607,28 +5662,28 @@
       <c r="K11" s="56"/>
       <c r="L11" s="41"/>
       <c r="M11" s="43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N11" s="42">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="O11" s="50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P11" s="51">
         <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="Q11" s="43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R11" s="42">
         <f t="shared" si="17"/>
         <v>23</v>
       </c>
-      <c r="S11" s="92"/>
-      <c r="T11" s="94"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="98"/>
       <c r="U11" s="41"/>
       <c r="V11" s="68"/>
       <c r="W11" s="66"/>
@@ -5646,71 +5701,73 @@
       <c r="AI11" s="41"/>
       <c r="AJ11" s="68"/>
       <c r="AK11" s="56"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="108"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
     </row>
     <row r="12" spans="1:43" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="63">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="69" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>146</v>
+        <v>438</v>
       </c>
       <c r="I12" s="75">
         <f t="shared" ref="I12" si="18">LEN(H12)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K12" s="75">
         <f t="shared" ref="K12" si="19">LEN(J12)</f>
         <v>109</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M12" s="43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N12" s="42">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="O12" s="43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P12" s="42">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="R12" s="42">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="S12" s="67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T12" s="65">
         <f t="shared" si="5"/>
@@ -5718,7 +5775,7 @@
       </c>
       <c r="U12" s="41"/>
       <c r="V12" s="67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="W12" s="65">
         <f t="shared" si="6"/>
@@ -5731,10 +5788,10 @@
         <v>84</v>
       </c>
       <c r="Z12" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA12" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AB12" s="61" t="s">
         <v>41</v>
@@ -5743,35 +5800,37 @@
         <v>86</v>
       </c>
       <c r="AD12" s="61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
       <c r="AG12" s="67" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AH12" s="65">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="91" t="s">
-        <v>156</v>
+      <c r="AI12" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AJ12" s="95" t="s">
+        <v>152</v>
       </c>
       <c r="AK12" s="75">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="AL12" s="101" t="s">
+      <c r="AL12" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM12" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN12" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO12" s="105" t="s">
+      <c r="AM12" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN12" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO12" s="109" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5789,21 +5848,21 @@
       <c r="K13" s="76"/>
       <c r="L13" s="41"/>
       <c r="M13" s="48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N13" s="49">
         <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P13" s="42">
         <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R13" s="42">
         <f t="shared" si="17"/>
@@ -5826,83 +5885,87 @@
       <c r="AG13" s="68"/>
       <c r="AH13" s="66"/>
       <c r="AI13" s="41"/>
-      <c r="AJ13" s="92"/>
+      <c r="AJ13" s="96"/>
       <c r="AK13" s="76"/>
-      <c r="AL13" s="102"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="108"/>
+      <c r="AN13" s="110"/>
+      <c r="AO13" s="110"/>
     </row>
     <row r="14" spans="1:43" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="63">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="69" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I14" s="75">
         <f t="shared" ref="I14" si="20">LEN(H14)</f>
         <v>35</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K14" s="75">
         <f t="shared" ref="K14" si="21">LEN(J14)</f>
         <v>119</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M14" s="43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14" s="42">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P14" s="42">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="Q14" s="43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R14" s="42">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="S14" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="T14" s="93">
+      <c r="S14" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="97">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="U14" s="41"/>
-      <c r="V14" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="W14" s="93">
+      <c r="U14" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="V14" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="W14" s="97">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
@@ -5913,46 +5976,48 @@
         <v>38</v>
       </c>
       <c r="Z14" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA14" s="61" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AC14" s="61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AD14" s="61"/>
       <c r="AE14" s="61"/>
       <c r="AF14" s="61"/>
       <c r="AG14" s="67" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AH14" s="65">
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
-      <c r="AI14" s="41"/>
+      <c r="AI14" s="41" t="s">
+        <v>453</v>
+      </c>
       <c r="AJ14" s="67" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AK14" s="55">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="AL14" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM14" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN14" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO14" s="105" t="s">
-        <v>177</v>
+      <c r="AL14" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM14" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN14" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO14" s="109" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -5969,31 +6034,31 @@
       <c r="K15" s="76"/>
       <c r="L15" s="41"/>
       <c r="M15" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N15" s="42">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="O15" s="43" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P15" s="42">
         <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="Q15" s="43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="R15" s="42">
         <f t="shared" si="17"/>
         <v>32</v>
       </c>
-      <c r="S15" s="92"/>
-      <c r="T15" s="94"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="98"/>
       <c r="U15" s="41"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="94"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="98"/>
       <c r="X15" s="62"/>
       <c r="Y15" s="62"/>
       <c r="Z15" s="62"/>
@@ -6008,79 +6073,81 @@
       <c r="AI15" s="41"/>
       <c r="AJ15" s="68"/>
       <c r="AK15" s="56"/>
-      <c r="AL15" s="102"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="106"/>
-      <c r="AO15" s="106"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="108"/>
+      <c r="AN15" s="110"/>
+      <c r="AO15" s="110"/>
     </row>
     <row r="16" spans="1:43" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="63">
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="G16" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>186</v>
-      </c>
       <c r="H16" s="77" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="I16" s="75">
         <f t="shared" ref="I16" si="22">LEN(H16)</f>
-        <v>36</v>
-      </c>
-      <c r="J16" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="K16" s="83">
+        <v>35</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="87">
         <f t="shared" ref="K16" si="23">LEN(J16)</f>
         <v>108</v>
       </c>
-      <c r="L16" s="41"/>
+      <c r="L16" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M16" s="43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N16" s="42">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O16" s="43" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P16" s="42">
         <f t="shared" ref="P16" si="24">LEN(O16)</f>
         <v>8</v>
       </c>
       <c r="Q16" s="43" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R16" s="42">
         <f t="shared" ref="R16" si="25">LEN(Q16)</f>
         <v>7</v>
       </c>
-      <c r="S16" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="T16" s="93">
+      <c r="S16" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="97">
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="U16" s="41"/>
       <c r="V16" s="67" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="W16" s="65">
         <f t="shared" si="6"/>
@@ -6090,51 +6157,53 @@
         <v>6</v>
       </c>
       <c r="Y16" s="61" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z16" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA16" s="61" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AB16" s="61" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AC16" s="61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AD16" s="61" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AE16" s="61"/>
       <c r="AF16" s="61"/>
-      <c r="AG16" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH16" s="97">
+      <c r="AG16" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH16" s="101">
         <f t="shared" si="7"/>
         <v>130</v>
       </c>
-      <c r="AI16" s="41"/>
+      <c r="AI16" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ16" s="67" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AK16" s="55">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="AL16" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM16" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN16" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO16" s="105" t="s">
-        <v>202</v>
+      <c r="AL16" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM16" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN16" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO16" s="109" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -6147,32 +6216,32 @@
       <c r="G17" s="56"/>
       <c r="H17" s="78"/>
       <c r="I17" s="76"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="84"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="88"/>
       <c r="L17" s="41"/>
       <c r="M17" s="43" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N17" s="42">
         <f t="shared" ref="N17" si="26">LEN(M17)</f>
         <v>36</v>
       </c>
       <c r="O17" s="43" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P17" s="42">
         <f t="shared" ref="P17" si="27">LEN(O17)</f>
         <v>34</v>
       </c>
       <c r="Q17" s="43" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R17" s="42">
         <f t="shared" ref="R17" si="28">LEN(Q17)</f>
         <v>38</v>
       </c>
-      <c r="S17" s="92"/>
-      <c r="T17" s="94"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="98"/>
       <c r="U17" s="41"/>
       <c r="V17" s="68"/>
       <c r="W17" s="66"/>
@@ -6185,84 +6254,88 @@
       <c r="AD17" s="62"/>
       <c r="AE17" s="62"/>
       <c r="AF17" s="62"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="98"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="102"/>
       <c r="AI17" s="41"/>
       <c r="AJ17" s="68"/>
       <c r="AK17" s="56"/>
-      <c r="AL17" s="102"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="110"/>
+      <c r="AO17" s="110"/>
     </row>
     <row r="18" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="63">
         <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H18" s="59" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I18" s="55">
         <f t="shared" ref="I18" si="29">LEN(H18)</f>
         <v>23</v>
       </c>
       <c r="J18" s="57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K18" s="55">
         <f t="shared" ref="K18" si="30">LEN(J18)</f>
         <v>112</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M18" s="43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N18" s="42">
         <f>LEN(M18)</f>
         <v>6</v>
       </c>
       <c r="O18" s="43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P18" s="42">
         <f>LEN(O18)</f>
         <v>4</v>
       </c>
       <c r="Q18" s="43" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="R18" s="42">
         <f>LEN(Q18)</f>
         <v>3</v>
       </c>
       <c r="S18" s="67" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="T18" s="65">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="U18" s="41"/>
+      <c r="U18" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V18" s="67" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="W18" s="65">
         <f t="shared" si="6"/>
@@ -6272,48 +6345,50 @@
         <v>5</v>
       </c>
       <c r="Y18" s="61" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Z18" s="61" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="61" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AB18" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC18" s="61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AD18" s="61"/>
       <c r="AE18" s="61"/>
       <c r="AF18" s="61"/>
       <c r="AG18" s="67" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AH18" s="65">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="AI18" s="41"/>
+      <c r="AI18" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ18" s="67" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AK18" s="55">
         <f t="shared" si="8"/>
         <v>76</v>
       </c>
-      <c r="AL18" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM18" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN18" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO18" s="105" t="s">
+      <c r="AL18" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM18" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN18" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO18" s="109" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6331,21 +6406,21 @@
       <c r="K19" s="56"/>
       <c r="L19" s="41"/>
       <c r="M19" s="43" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N19" s="42">
         <f>LEN(M19)</f>
         <v>17</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P19" s="42">
         <f>LEN(O19)</f>
         <v>27</v>
       </c>
       <c r="Q19" s="43" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="R19" s="42">
         <f>LEN(Q19)</f>
@@ -6370,79 +6445,83 @@
       <c r="AI19" s="41"/>
       <c r="AJ19" s="68"/>
       <c r="AK19" s="56"/>
-      <c r="AL19" s="100"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="106"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="108"/>
+      <c r="AN19" s="110"/>
+      <c r="AO19" s="110"/>
     </row>
     <row r="20" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="63">
         <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="119" t="s">
-        <v>441</v>
+        <v>223</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>433</v>
       </c>
       <c r="E20" s="71" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I20" s="55">
         <f t="shared" ref="I20" si="31">LEN(H20)</f>
         <v>32</v>
       </c>
-      <c r="J20" s="87" t="s">
-        <v>231</v>
+      <c r="J20" s="91" t="s">
+        <v>434</v>
       </c>
       <c r="K20" s="75">
         <f t="shared" ref="K20" si="32">LEN(J20)</f>
-        <v>117</v>
-      </c>
-      <c r="L20" s="41"/>
+        <v>98</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>442</v>
+      </c>
       <c r="M20" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N20" s="42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P20" s="42">
         <f t="shared" ref="P20" si="33">LEN(O20)</f>
         <v>5</v>
       </c>
       <c r="Q20" s="43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="R20" s="42">
         <f t="shared" ref="R20" si="34">LEN(Q20)</f>
         <v>3</v>
       </c>
       <c r="S20" s="67" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="T20" s="65">
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="U20" s="41"/>
+      <c r="U20" s="41" t="s">
+        <v>448</v>
+      </c>
       <c r="V20" s="67" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="W20" s="65">
         <f t="shared" si="6"/>
@@ -6452,16 +6531,16 @@
         <v>5</v>
       </c>
       <c r="Y20" s="61" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z20" s="61" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AA20" s="61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AB20" s="61" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AC20" s="61" t="s">
         <v>64</v>
@@ -6470,62 +6549,64 @@
       <c r="AE20" s="61"/>
       <c r="AF20" s="61"/>
       <c r="AG20" s="67" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AH20" s="65">
         <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="AI20" s="41"/>
+      <c r="AI20" s="41" t="s">
+        <v>451</v>
+      </c>
       <c r="AJ20" s="67" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AK20" s="55">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="AL20" s="101" t="s">
+      <c r="AL20" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM20" s="103" t="s">
+      <c r="AM20" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AN20" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO20" s="105" t="s">
-        <v>242</v>
+      <c r="AN20" s="109" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO20" s="109" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="64"/>
       <c r="B21" s="6"/>
       <c r="C21" s="74"/>
-      <c r="D21" s="120"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="72"/>
       <c r="F21" s="70"/>
       <c r="G21" s="56"/>
       <c r="H21" s="60"/>
       <c r="I21" s="56"/>
-      <c r="J21" s="88"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="76"/>
       <c r="L21" s="41"/>
       <c r="M21" s="43" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N21" s="42">
         <f t="shared" ref="N21" si="35">LEN(M21)</f>
         <v>20</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P21" s="42">
         <f t="shared" ref="P21" si="36">LEN(O21)</f>
         <v>25</v>
       </c>
       <c r="Q21" s="43" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="R21" s="42">
         <f t="shared" ref="R21" si="37">LEN(Q21)</f>
@@ -6550,79 +6631,83 @@
       <c r="AI21" s="41"/>
       <c r="AJ21" s="68"/>
       <c r="AK21" s="56"/>
-      <c r="AL21" s="102"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="106"/>
-      <c r="AO21" s="106"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="110"/>
+      <c r="AO21" s="110"/>
     </row>
     <row r="22" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="63">
         <v>11</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H22" s="77" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I22" s="75">
         <f t="shared" ref="I22" si="38">LEN(H22)</f>
         <v>31</v>
       </c>
       <c r="J22" s="57" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K22" s="55">
         <f t="shared" ref="K22" si="39">LEN(J22)</f>
         <v>93</v>
       </c>
-      <c r="L22" s="41"/>
+      <c r="L22" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M22" s="43" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N22" s="42">
         <f>LEN(M22)</f>
         <v>8</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P22" s="42">
         <f>LEN(O22)</f>
         <v>5</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="R22" s="42">
         <f>LEN(Q22)</f>
         <v>6</v>
       </c>
-      <c r="S22" s="91" t="s">
-        <v>255</v>
-      </c>
-      <c r="T22" s="93">
+      <c r="S22" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="T22" s="97">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="U22" s="41"/>
+      <c r="U22" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V22" s="67" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="W22" s="65">
         <f t="shared" si="6"/>
@@ -6632,16 +6717,16 @@
         <v>5</v>
       </c>
       <c r="Y22" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z22" s="61" t="s">
         <v>38</v>
       </c>
       <c r="AA22" s="61" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AB22" s="61" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AC22" s="61" t="s">
         <v>88</v>
@@ -6650,31 +6735,33 @@
       <c r="AE22" s="61"/>
       <c r="AF22" s="61"/>
       <c r="AG22" s="67" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AH22" s="65">
         <f t="shared" si="7"/>
         <v>129</v>
       </c>
-      <c r="AI22" s="41"/>
+      <c r="AI22" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ22" s="67" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AK22" s="55">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="AL22" s="101" t="s">
+      <c r="AL22" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM22" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN22" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO22" s="105" t="s">
-        <v>262</v>
+      <c r="AM22" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN22" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO22" s="109" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -6691,28 +6778,28 @@
       <c r="K23" s="56"/>
       <c r="L23" s="41"/>
       <c r="M23" s="43" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N23" s="42">
         <f>LEN(M23)</f>
         <v>27</v>
       </c>
       <c r="O23" s="43" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P23" s="42">
         <f>LEN(O23)</f>
         <v>27</v>
       </c>
       <c r="Q23" s="43" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="R23" s="42">
         <f>LEN(Q23)</f>
         <v>28</v>
       </c>
-      <c r="S23" s="92"/>
-      <c r="T23" s="94"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="98"/>
       <c r="U23" s="41"/>
       <c r="V23" s="68"/>
       <c r="W23" s="66"/>
@@ -6730,48 +6817,50 @@
       <c r="AI23" s="41"/>
       <c r="AJ23" s="68"/>
       <c r="AK23" s="56"/>
-      <c r="AL23" s="102"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="106"/>
-      <c r="AO23" s="106"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="108"/>
+      <c r="AN23" s="110"/>
+      <c r="AO23" s="110"/>
     </row>
     <row r="24" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="I24" s="55">
         <f t="shared" ref="I24" si="40">LEN(H24)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="79" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K24" s="75">
         <f t="shared" ref="K24" si="41">LEN(J24)</f>
         <v>117</v>
       </c>
-      <c r="L24" s="41"/>
+      <c r="L24" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M24" s="32">
         <v>0.2</v>
       </c>
@@ -6780,29 +6869,31 @@
         <v>3</v>
       </c>
       <c r="O24" s="43" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P24" s="42">
         <f t="shared" ref="P24" si="42">LEN(O24)</f>
         <v>4</v>
       </c>
       <c r="Q24" s="43" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="R24" s="42">
         <f t="shared" ref="R24" si="43">LEN(Q24)</f>
         <v>5</v>
       </c>
       <c r="S24" s="67" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="T24" s="65">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="U24" s="41"/>
+      <c r="U24" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V24" s="67" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="W24" s="65">
         <f t="shared" si="6"/>
@@ -6812,51 +6903,53 @@
         <v>6</v>
       </c>
       <c r="Y24" s="61" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Z24" s="61" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AA24" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AB24" s="61" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AC24" s="61" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AD24" s="61" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AE24" s="61"/>
       <c r="AF24" s="61"/>
       <c r="AG24" s="67" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AH24" s="65">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="AI24" s="41"/>
+      <c r="AI24" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ24" s="67" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AK24" s="55">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="AL24" s="101" t="s">
+      <c r="AL24" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM24" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN24" s="105" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO24" s="105" t="s">
-        <v>284</v>
+      <c r="AM24" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN24" s="109" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO24" s="109" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -6873,21 +6966,21 @@
       <c r="K25" s="76"/>
       <c r="L25" s="41"/>
       <c r="M25" s="43" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N25" s="42">
         <f t="shared" ref="N25" si="44">LEN(M25)</f>
         <v>32</v>
       </c>
       <c r="O25" s="43" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P25" s="42">
         <f t="shared" ref="P25" si="45">LEN(O25)</f>
         <v>33</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="R25" s="42">
         <f t="shared" ref="R25" si="46">LEN(Q25)</f>
@@ -6912,79 +7005,83 @@
       <c r="AI25" s="41"/>
       <c r="AJ25" s="68"/>
       <c r="AK25" s="56"/>
-      <c r="AL25" s="102"/>
-      <c r="AM25" s="104"/>
-      <c r="AN25" s="106"/>
-      <c r="AO25" s="106"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="108"/>
+      <c r="AN25" s="110"/>
+      <c r="AO25" s="110"/>
     </row>
     <row r="26" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="63">
         <v>13</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F26" s="69" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H26" s="77" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I26" s="55">
         <f t="shared" ref="I26" si="47">LEN(H26)</f>
         <v>22</v>
       </c>
       <c r="J26" s="79" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K26" s="75">
         <f t="shared" ref="K26" si="48">LEN(J26)</f>
         <v>119</v>
       </c>
-      <c r="L26" s="41"/>
+      <c r="L26" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M26" s="43" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N26" s="42">
         <f t="shared" ref="N26:N31" si="49">LEN(M26)</f>
         <v>4</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P26" s="42">
         <f t="shared" ref="P26:P31" si="50">LEN(O26)</f>
         <v>7</v>
       </c>
       <c r="Q26" s="43" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="R26" s="42">
         <f t="shared" ref="R26:R31" si="51">LEN(Q26)</f>
         <v>7</v>
       </c>
       <c r="S26" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="T26" s="65">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="U26" s="41"/>
+      <c r="U26" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V26" s="67" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="W26" s="65">
         <f t="shared" si="6"/>
@@ -6994,51 +7091,53 @@
         <v>6</v>
       </c>
       <c r="Y26" s="61" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Z26" s="61" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AA26" s="61" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AB26" s="61" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AC26" s="61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AD26" s="61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AE26" s="61"/>
       <c r="AF26" s="61"/>
       <c r="AG26" s="67" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AH26" s="65">
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
-      <c r="AI26" s="41"/>
+      <c r="AI26" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ26" s="67" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AK26" s="55">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="AL26" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM26" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN26" s="105" t="s">
-        <v>302</v>
-      </c>
-      <c r="AO26" s="105" t="s">
-        <v>303</v>
+      <c r="AL26" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM26" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN26" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO26" s="109" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -7055,21 +7154,21 @@
       <c r="K27" s="76"/>
       <c r="L27" s="41"/>
       <c r="M27" s="48" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N27" s="49">
         <f t="shared" si="49"/>
         <v>31</v>
       </c>
       <c r="O27" s="43" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P27" s="42">
         <f t="shared" si="50"/>
         <v>36</v>
       </c>
       <c r="Q27" s="48" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="R27" s="49">
         <f t="shared" si="51"/>
@@ -7094,81 +7193,85 @@
       <c r="AI27" s="41"/>
       <c r="AJ27" s="68"/>
       <c r="AK27" s="56"/>
-      <c r="AL27" s="102"/>
-      <c r="AM27" s="104"/>
-      <c r="AN27" s="106"/>
-      <c r="AO27" s="106"/>
+      <c r="AL27" s="106"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="110"/>
+      <c r="AO27" s="110"/>
     </row>
     <row r="28" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="63">
         <v>14</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>308</v>
+        <v>441</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H28" s="77" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I28" s="75">
         <f t="shared" ref="I28" si="52">LEN(H28)</f>
         <v>33</v>
       </c>
       <c r="J28" s="79" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K28" s="75">
         <f t="shared" ref="K28" si="53">LEN(J28)</f>
         <v>112</v>
       </c>
-      <c r="L28" s="41"/>
+      <c r="L28" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M28" s="43" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N28" s="42">
         <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="O28" s="43" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P28" s="42">
         <f t="shared" si="50"/>
         <v>9</v>
       </c>
       <c r="Q28" s="43" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="R28" s="42">
         <f t="shared" si="51"/>
         <v>10</v>
       </c>
-      <c r="S28" s="91" t="s">
-        <v>316</v>
-      </c>
-      <c r="T28" s="93">
+      <c r="S28" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="T28" s="97">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="U28" s="36"/>
-      <c r="V28" s="91" t="s">
-        <v>317</v>
-      </c>
-      <c r="W28" s="93">
+      <c r="U28" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="V28" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="W28" s="97">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
@@ -7176,55 +7279,57 @@
         <v>8</v>
       </c>
       <c r="Y28" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z28" s="61" t="s">
         <v>84</v>
       </c>
       <c r="AA28" s="61" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AB28" s="61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AC28" s="61" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AD28" s="61" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AE28" s="61" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AF28" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG28" s="95" t="s">
-        <v>322</v>
-      </c>
-      <c r="AH28" s="97">
+        <v>313</v>
+      </c>
+      <c r="AG28" s="99" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH28" s="101">
         <f t="shared" si="7"/>
         <v>129</v>
       </c>
-      <c r="AI28" s="41"/>
+      <c r="AI28" s="41" t="s">
+        <v>450</v>
+      </c>
       <c r="AJ28" s="67" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AK28" s="55">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="AL28" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM28" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN28" s="105" t="s">
-        <v>324</v>
-      </c>
-      <c r="AO28" s="105" t="s">
-        <v>325</v>
+      <c r="AL28" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM28" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN28" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO28" s="109" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -7241,31 +7346,31 @@
       <c r="K29" s="76"/>
       <c r="L29" s="41"/>
       <c r="M29" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N29" s="42">
         <f t="shared" si="49"/>
         <v>26</v>
       </c>
       <c r="O29" s="43" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P29" s="42">
         <f t="shared" si="50"/>
         <v>37</v>
       </c>
       <c r="Q29" s="43" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="R29" s="42">
         <f t="shared" si="51"/>
         <v>35</v>
       </c>
-      <c r="S29" s="92"/>
-      <c r="T29" s="94"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="98"/>
       <c r="U29" s="36"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="94"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="98"/>
       <c r="X29" s="62"/>
       <c r="Y29" s="62"/>
       <c r="Z29" s="62"/>
@@ -7275,84 +7380,88 @@
       <c r="AD29" s="62"/>
       <c r="AE29" s="62"/>
       <c r="AF29" s="62"/>
-      <c r="AG29" s="96"/>
-      <c r="AH29" s="98"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="102"/>
       <c r="AI29" s="41"/>
       <c r="AJ29" s="68"/>
       <c r="AK29" s="56"/>
-      <c r="AL29" s="102"/>
-      <c r="AM29" s="104"/>
-      <c r="AN29" s="106"/>
-      <c r="AO29" s="106"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="108"/>
+      <c r="AN29" s="110"/>
+      <c r="AO29" s="110"/>
     </row>
     <row r="30" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="63">
         <v>15</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E30" s="71" t="s">
         <v>75</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>334</v>
+        <v>325</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>326</v>
       </c>
       <c r="I30" s="75">
         <f t="shared" ref="I30" si="54">LEN(H30)</f>
         <v>28</v>
       </c>
-      <c r="J30" s="89" t="s">
-        <v>335</v>
+      <c r="J30" s="93" t="s">
+        <v>327</v>
       </c>
       <c r="K30" s="75">
         <f t="shared" ref="K30" si="55">LEN(J30)</f>
         <v>118</v>
       </c>
-      <c r="L30" s="41"/>
+      <c r="L30" s="41" t="s">
+        <v>444</v>
+      </c>
       <c r="M30" s="43" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="N30" s="42">
         <f t="shared" si="49"/>
         <v>6</v>
       </c>
       <c r="O30" s="43" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P30" s="42">
         <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="Q30" s="43" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="R30" s="42">
         <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="S30" s="67" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="T30" s="65">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="U30" s="41"/>
+      <c r="U30" s="41" t="s">
+        <v>449</v>
+      </c>
       <c r="V30" s="67" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="W30" s="65">
         <f t="shared" si="6"/>
@@ -7362,54 +7471,56 @@
         <v>8</v>
       </c>
       <c r="Y30" s="61" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Z30" s="61" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AA30" s="61" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AB30" s="61" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AC30" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD30" s="107" t="s">
-        <v>344</v>
+        <v>335</v>
+      </c>
+      <c r="AD30" s="111" t="s">
+        <v>336</v>
       </c>
       <c r="AE30" s="61" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AF30" s="61" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG30" s="67" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AH30" s="65">
         <f t="shared" si="7"/>
         <v>126</v>
       </c>
-      <c r="AI30" s="41"/>
+      <c r="AI30" s="41" t="s">
+        <v>454</v>
+      </c>
       <c r="AJ30" s="67" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AK30" s="55">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="AL30" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM30" s="103" t="s">
+      <c r="AL30" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM30" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="AN30" s="105" t="s">
-        <v>349</v>
-      </c>
-      <c r="AO30" s="105" t="s">
+      <c r="AN30" s="109" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO30" s="109" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7421,27 +7532,27 @@
       <c r="E31" s="72"/>
       <c r="F31" s="70"/>
       <c r="G31" s="56"/>
-      <c r="H31" s="82"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="76"/>
-      <c r="J31" s="90"/>
+      <c r="J31" s="94"/>
       <c r="K31" s="76"/>
       <c r="L31" s="41"/>
       <c r="M31" s="48" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="N31" s="49">
         <f t="shared" si="49"/>
         <v>33</v>
       </c>
       <c r="O31" s="43" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P31" s="42">
         <f t="shared" si="50"/>
         <v>20</v>
       </c>
       <c r="Q31" s="43" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="R31" s="42">
         <f t="shared" si="51"/>
@@ -7458,7 +7569,7 @@
       <c r="AA31" s="62"/>
       <c r="AB31" s="62"/>
       <c r="AC31" s="62"/>
-      <c r="AD31" s="108"/>
+      <c r="AD31" s="112"/>
       <c r="AE31" s="62"/>
       <c r="AF31" s="62"/>
       <c r="AG31" s="68"/>
@@ -7466,79 +7577,83 @@
       <c r="AI31" s="41"/>
       <c r="AJ31" s="68"/>
       <c r="AK31" s="56"/>
-      <c r="AL31" s="102"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="106"/>
-      <c r="AO31" s="106"/>
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="108"/>
+      <c r="AN31" s="110"/>
+      <c r="AO31" s="110"/>
     </row>
     <row r="32" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="63">
         <v>16</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H32" s="77" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="I32" s="75">
         <f t="shared" ref="I32" si="56">LEN(H32)</f>
         <v>32</v>
       </c>
       <c r="J32" s="79" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K32" s="75">
         <f t="shared" ref="K32" si="57">LEN(J32)</f>
         <v>114</v>
       </c>
-      <c r="L32" s="41"/>
+      <c r="L32" s="41" t="s">
+        <v>443</v>
+      </c>
       <c r="M32" s="43" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N32" s="42">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O32" s="43" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="P32" s="42">
         <f t="shared" ref="P32:P34" si="58">LEN(O32)</f>
         <v>7</v>
       </c>
       <c r="Q32" s="43" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="R32" s="42">
         <f t="shared" ref="R32:R34" si="59">LEN(Q32)</f>
         <v>4</v>
       </c>
       <c r="S32" s="67" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="T32" s="65">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="U32" s="41"/>
+      <c r="U32" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V32" s="67" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="W32" s="65">
         <f t="shared" si="6"/>
@@ -7548,49 +7663,51 @@
         <v>5</v>
       </c>
       <c r="Y32" s="61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z32" s="61" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AA32" s="61" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AB32" s="61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AC32" s="61" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AD32" s="61"/>
       <c r="AE32" s="61"/>
       <c r="AF32" s="61"/>
-      <c r="AG32" s="91" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH32" s="93">
+      <c r="AG32" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH32" s="97">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="91" t="s">
-        <v>367</v>
+      <c r="AI32" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ32" s="95" t="s">
+        <v>359</v>
       </c>
       <c r="AK32" s="75">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="AL32" s="101" t="s">
+      <c r="AL32" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM32" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN32" s="105" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO32" s="105" t="s">
-        <v>369</v>
+      <c r="AM32" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN32" s="109" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO32" s="109" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -7607,21 +7724,21 @@
       <c r="K33" s="76"/>
       <c r="L33" s="41"/>
       <c r="M33" s="43" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="N33" s="42">
         <f t="shared" ref="N33" si="60">LEN(M33)</f>
         <v>33</v>
       </c>
       <c r="O33" s="43" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="P33" s="42">
         <f t="shared" ref="P33" si="61">LEN(O33)</f>
         <v>23</v>
       </c>
       <c r="Q33" s="43" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="R33" s="42">
         <f t="shared" ref="R33" si="62">LEN(Q33)</f>
@@ -7641,84 +7758,88 @@
       <c r="AD33" s="62"/>
       <c r="AE33" s="62"/>
       <c r="AF33" s="62"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="94"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="98"/>
       <c r="AI33" s="41"/>
-      <c r="AJ33" s="92"/>
+      <c r="AJ33" s="96"/>
       <c r="AK33" s="76"/>
-      <c r="AL33" s="102"/>
-      <c r="AM33" s="104"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="106"/>
+      <c r="AL33" s="106"/>
+      <c r="AM33" s="108"/>
+      <c r="AN33" s="110"/>
+      <c r="AO33" s="110"/>
     </row>
     <row r="34" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="63">
         <v>17</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E34" s="71" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I34" s="55">
         <f t="shared" ref="I34" si="63">LEN(H34)</f>
         <v>34</v>
       </c>
       <c r="J34" s="57" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K34" s="55">
         <f t="shared" ref="K34" si="64">LEN(J34)</f>
         <v>75</v>
       </c>
-      <c r="L34" s="41"/>
+      <c r="L34" s="41" t="s">
+        <v>445</v>
+      </c>
       <c r="M34" s="43" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="N34" s="42">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O34" s="43" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P34" s="42">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="R34" s="42">
         <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="S34" s="67" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="T34" s="65">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="U34" s="41"/>
+      <c r="U34" s="41" t="s">
+        <v>449</v>
+      </c>
       <c r="V34" s="67" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="W34" s="65">
         <f t="shared" si="6"/>
@@ -7728,49 +7849,51 @@
         <v>5</v>
       </c>
       <c r="Y34" s="61" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z34" s="61" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AA34" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB34" s="61" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AC34" s="61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AD34" s="61"/>
       <c r="AE34" s="61"/>
       <c r="AF34" s="61"/>
-      <c r="AG34" s="91" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH34" s="93">
+      <c r="AG34" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH34" s="97">
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="91" t="s">
-        <v>386</v>
+      <c r="AI34" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="AJ34" s="95" t="s">
+        <v>378</v>
       </c>
       <c r="AK34" s="75">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AL34" s="101" t="s">
+      <c r="AL34" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AM34" s="103" t="s">
+      <c r="AM34" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AN34" s="105" t="s">
-        <v>387</v>
-      </c>
-      <c r="AO34" s="105" t="s">
-        <v>388</v>
+      <c r="AN34" s="109" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO34" s="109" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -7787,21 +7910,21 @@
       <c r="K35" s="56"/>
       <c r="L35" s="41"/>
       <c r="M35" s="43" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="N35" s="42">
         <f t="shared" ref="N35" si="65">LEN(M35)</f>
         <v>31</v>
       </c>
       <c r="O35" s="43" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P35" s="42">
         <f t="shared" ref="P35" si="66">LEN(O35)</f>
         <v>30</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="R35" s="42">
         <f t="shared" ref="R35" si="67">LEN(Q35)</f>
@@ -7821,84 +7944,88 @@
       <c r="AD35" s="62"/>
       <c r="AE35" s="62"/>
       <c r="AF35" s="62"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="94"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="98"/>
       <c r="AI35" s="41"/>
-      <c r="AJ35" s="92"/>
+      <c r="AJ35" s="96"/>
       <c r="AK35" s="76"/>
-      <c r="AL35" s="102"/>
-      <c r="AM35" s="104"/>
-      <c r="AN35" s="106"/>
-      <c r="AO35" s="106"/>
+      <c r="AL35" s="106"/>
+      <c r="AM35" s="108"/>
+      <c r="AN35" s="110"/>
+      <c r="AO35" s="110"/>
     </row>
     <row r="36" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="63">
         <v>18</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C36" s="73" t="s">
-        <v>393</v>
-      </c>
-      <c r="D36" s="121" t="s">
-        <v>394</v>
+        <v>385</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>386</v>
       </c>
       <c r="E36" s="71" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I36" s="55">
         <f t="shared" ref="I36" si="68">LEN(H36)</f>
         <v>31</v>
       </c>
       <c r="J36" s="79" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K36" s="75">
         <f t="shared" ref="K36" si="69">LEN(J36)</f>
         <v>117</v>
       </c>
-      <c r="L36" s="41"/>
+      <c r="L36" s="41" t="s">
+        <v>444</v>
+      </c>
       <c r="M36" s="43" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="N36" s="42">
         <f>LEN(M36)</f>
         <v>7</v>
       </c>
       <c r="O36" s="43" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P36" s="42">
         <f>LEN(O36)</f>
         <v>8</v>
       </c>
       <c r="Q36" s="43" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="R36" s="42">
         <f>LEN(Q36)</f>
         <v>6</v>
       </c>
       <c r="S36" s="67" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="T36" s="65">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="U36" s="41"/>
+      <c r="U36" s="41" t="s">
+        <v>448</v>
+      </c>
       <c r="V36" s="67" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="W36" s="65">
         <f t="shared" si="6"/>
@@ -7908,56 +8035,58 @@
         <v>5</v>
       </c>
       <c r="Y36" s="61" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z36" s="61" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AA36" s="61" t="s">
         <v>38</v>
       </c>
       <c r="AB36" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC36" s="61" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AD36" s="61"/>
       <c r="AE36" s="61"/>
       <c r="AF36" s="61"/>
-      <c r="AG36" s="91" t="s">
-        <v>405</v>
-      </c>
-      <c r="AH36" s="93">
+      <c r="AG36" s="95" t="s">
+        <v>397</v>
+      </c>
+      <c r="AH36" s="97">
         <f t="shared" si="7"/>
         <v>111</v>
       </c>
-      <c r="AI36" s="41"/>
+      <c r="AI36" s="41" t="s">
+        <v>451</v>
+      </c>
       <c r="AJ36" s="67" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AK36" s="55">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="AL36" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM36" s="103" t="s">
+      <c r="AL36" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM36" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="AN36" s="105" t="s">
-        <v>407</v>
-      </c>
-      <c r="AO36" s="105" t="s">
-        <v>408</v>
+      <c r="AN36" s="109" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO36" s="109" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="64"/>
       <c r="B37" s="6"/>
       <c r="C37" s="74"/>
-      <c r="D37" s="122"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="72"/>
       <c r="F37" s="70"/>
       <c r="G37" s="56"/>
@@ -7967,21 +8096,21 @@
       <c r="K37" s="76"/>
       <c r="L37" s="41"/>
       <c r="M37" s="43" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="N37" s="42">
         <f>LEN(M37)</f>
         <v>33</v>
       </c>
       <c r="O37" s="50" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="P37" s="51">
         <f>LEN(O37)</f>
         <v>36</v>
       </c>
       <c r="Q37" s="48" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="R37" s="49">
         <f>LEN(Q37)</f>
@@ -8001,84 +8130,88 @@
       <c r="AD37" s="62"/>
       <c r="AE37" s="62"/>
       <c r="AF37" s="62"/>
-      <c r="AG37" s="92"/>
-      <c r="AH37" s="94"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="98"/>
       <c r="AI37" s="41"/>
       <c r="AJ37" s="68"/>
       <c r="AK37" s="56"/>
-      <c r="AL37" s="102"/>
-      <c r="AM37" s="104"/>
-      <c r="AN37" s="106"/>
-      <c r="AO37" s="106"/>
+      <c r="AL37" s="106"/>
+      <c r="AM37" s="108"/>
+      <c r="AN37" s="110"/>
+      <c r="AO37" s="110"/>
     </row>
     <row r="38" spans="1:41" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="63">
         <v>19</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D38" s="69" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="I38" s="55">
         <f t="shared" ref="I38" si="70">LEN(H38)</f>
         <v>30</v>
       </c>
       <c r="J38" s="57" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K38" s="55">
         <f t="shared" ref="K38" si="71">LEN(J38)</f>
         <v>104</v>
       </c>
-      <c r="L38" s="41"/>
+      <c r="L38" s="41" t="s">
+        <v>444</v>
+      </c>
       <c r="M38" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="N38" s="42">
         <f>LEN(M38)</f>
         <v>5</v>
       </c>
       <c r="O38" s="43" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P38" s="42">
         <f>LEN(O38)</f>
         <v>8</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="R38" s="42">
         <f>LEN(Q38)</f>
         <v>7</v>
       </c>
       <c r="S38" s="67" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="T38" s="65">
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="U38" s="41"/>
+      <c r="U38" s="41" t="s">
+        <v>447</v>
+      </c>
       <c r="V38" s="67" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="W38" s="65">
         <f t="shared" si="6"/>
@@ -8088,51 +8221,53 @@
         <v>6</v>
       </c>
       <c r="Y38" s="61" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Z38" s="61" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AA38" s="61" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AB38" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AC38" s="61" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AD38" s="61" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AE38" s="61"/>
       <c r="AF38" s="61"/>
-      <c r="AG38" s="91" t="s">
-        <v>425</v>
-      </c>
-      <c r="AH38" s="93">
+      <c r="AG38" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH38" s="97">
         <f t="shared" si="7"/>
         <v>121</v>
       </c>
-      <c r="AI38" s="41"/>
+      <c r="AI38" s="41" t="s">
+        <v>452</v>
+      </c>
       <c r="AJ38" s="67" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AK38" s="55">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="AL38" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM38" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN38" s="105" t="s">
-        <v>427</v>
-      </c>
-      <c r="AO38" s="105" t="s">
-        <v>428</v>
+      <c r="AL38" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM38" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN38" s="109" t="s">
+        <v>419</v>
+      </c>
+      <c r="AO38" s="109" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:41" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -8149,21 +8284,21 @@
       <c r="K39" s="56"/>
       <c r="L39" s="41"/>
       <c r="M39" s="43" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="N39" s="42">
         <f>LEN(M39)</f>
         <v>32</v>
       </c>
       <c r="O39" s="43" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P39" s="42">
         <f>LEN(O39)</f>
         <v>38</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="R39" s="42">
         <f>LEN(Q39)</f>
@@ -8183,15 +8318,15 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="62"/>
       <c r="AF39" s="62"/>
-      <c r="AG39" s="92"/>
-      <c r="AH39" s="94"/>
+      <c r="AG39" s="96"/>
+      <c r="AH39" s="98"/>
       <c r="AI39" s="41"/>
       <c r="AJ39" s="68"/>
       <c r="AK39" s="56"/>
-      <c r="AL39" s="100"/>
-      <c r="AM39" s="104"/>
-      <c r="AN39" s="106"/>
-      <c r="AO39" s="106"/>
+      <c r="AL39" s="104"/>
+      <c r="AM39" s="108"/>
+      <c r="AN39" s="110"/>
+      <c r="AO39" s="110"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A40" s="34"/>
@@ -8240,26 +8375,26 @@
       <c r="A41" s="38"/>
       <c r="B41" s="17"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="109"/>
+      <c r="D41" s="113"/>
       <c r="E41" s="38"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="113"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="117"/>
       <c r="L41" s="41"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="118"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="113"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="116"/>
+      <c r="T41" s="117"/>
       <c r="U41" s="41"/>
-      <c r="V41" s="112"/>
-      <c r="W41" s="113"/>
+      <c r="V41" s="116"/>
+      <c r="W41" s="117"/>
       <c r="X41" s="42"/>
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
@@ -8269,38 +8404,38 @@
       <c r="AD41" s="41"/>
       <c r="AE41" s="41"/>
       <c r="AF41" s="41"/>
-      <c r="AG41" s="112"/>
-      <c r="AH41" s="113"/>
+      <c r="AG41" s="116"/>
+      <c r="AH41" s="117"/>
       <c r="AI41" s="41"/>
-      <c r="AJ41" s="112" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK41" s="113"/>
+      <c r="AJ41" s="116" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK41" s="117"/>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A42" s="38"/>
       <c r="B42" s="17"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="110"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="38"/>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="115"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="119"/>
       <c r="L42" s="41"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="115"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="119"/>
       <c r="U42" s="41"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="115"/>
+      <c r="V42" s="118"/>
+      <c r="W42" s="119"/>
       <c r="X42" s="42"/>
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
@@ -8310,36 +8445,36 @@
       <c r="AD42" s="41"/>
       <c r="AE42" s="41"/>
       <c r="AF42" s="41"/>
-      <c r="AG42" s="114"/>
-      <c r="AH42" s="115"/>
+      <c r="AG42" s="118"/>
+      <c r="AH42" s="119"/>
       <c r="AI42" s="41"/>
-      <c r="AJ42" s="114"/>
-      <c r="AK42" s="115"/>
+      <c r="AJ42" s="118"/>
+      <c r="AK42" s="119"/>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A43" s="38"/>
       <c r="B43" s="17"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="110"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="38"/>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="115"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="119"/>
       <c r="L43" s="41"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="115"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="119"/>
       <c r="U43" s="41"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="115"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="119"/>
       <c r="X43" s="42"/>
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
@@ -8349,36 +8484,36 @@
       <c r="AD43" s="41"/>
       <c r="AE43" s="41"/>
       <c r="AF43" s="41"/>
-      <c r="AG43" s="114"/>
-      <c r="AH43" s="115"/>
+      <c r="AG43" s="118"/>
+      <c r="AH43" s="119"/>
       <c r="AI43" s="41"/>
-      <c r="AJ43" s="114"/>
-      <c r="AK43" s="115"/>
+      <c r="AJ43" s="118"/>
+      <c r="AK43" s="119"/>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A44" s="38"/>
       <c r="B44" s="17"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="110"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="38"/>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="115"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="119"/>
       <c r="L44" s="41"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="115"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="118"/>
+      <c r="T44" s="119"/>
       <c r="U44" s="41"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="115"/>
+      <c r="V44" s="118"/>
+      <c r="W44" s="119"/>
       <c r="X44" s="42"/>
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
@@ -8388,36 +8523,36 @@
       <c r="AD44" s="41"/>
       <c r="AE44" s="41"/>
       <c r="AF44" s="41"/>
-      <c r="AG44" s="114"/>
-      <c r="AH44" s="115"/>
+      <c r="AG44" s="118"/>
+      <c r="AH44" s="119"/>
       <c r="AI44" s="41"/>
-      <c r="AJ44" s="114"/>
-      <c r="AK44" s="115"/>
+      <c r="AJ44" s="118"/>
+      <c r="AK44" s="119"/>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A45" s="38"/>
       <c r="B45" s="17"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="111"/>
+      <c r="D45" s="115"/>
       <c r="E45" s="38"/>
       <c r="F45" s="39"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="117"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="121"/>
       <c r="L45" s="41"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="116"/>
-      <c r="T45" s="117"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="121"/>
       <c r="U45" s="41"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="117"/>
+      <c r="V45" s="120"/>
+      <c r="W45" s="121"/>
       <c r="X45" s="42"/>
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
@@ -8427,11 +8562,11 @@
       <c r="AD45" s="41"/>
       <c r="AE45" s="41"/>
       <c r="AF45" s="41"/>
-      <c r="AG45" s="116"/>
-      <c r="AH45" s="117"/>
+      <c r="AG45" s="120"/>
+      <c r="AH45" s="121"/>
       <c r="AI45" s="41"/>
-      <c r="AJ45" s="116"/>
-      <c r="AK45" s="117"/>
+      <c r="AJ45" s="120"/>
+      <c r="AK45" s="121"/>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.4">
       <c r="AG47" s="37"/>
@@ -9079,52 +9214,52 @@
     <row r="1" spans="1:61" s="11" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>39</v>
@@ -9133,130 +9268,130 @@
         <v>40</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="W1" s="24" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="BA1" s="2" t="s">
         <v>87</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="BC1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:61" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
@@ -9457,16 +9592,16 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="T3" s="14"/>
       <c r="U3" s="26"/>
@@ -9488,14 +9623,14 @@
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
       <c r="AM3" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AN3" s="14"/>
       <c r="AO3" s="14"/>
       <c r="AP3" s="14"/>
       <c r="AQ3" s="14"/>
       <c r="AR3" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AS3" s="14"/>
       <c r="AT3" s="14"/>
@@ -9568,11 +9703,11 @@
       <c r="AP4" s="14"/>
       <c r="AQ4" s="14"/>
       <c r="AR4" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AS4" s="14"/>
       <c r="AT4" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AU4" s="14"/>
       <c r="AV4" s="14"/>
@@ -9587,7 +9722,7 @@
       <c r="BE4" s="14"/>
       <c r="BF4" s="14"/>
       <c r="BG4" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="BH4" s="14"/>
       <c r="BI4" s="14"/>
@@ -9607,7 +9742,7 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -9642,12 +9777,12 @@
       <c r="AK5" s="14"/>
       <c r="AL5" s="14"/>
       <c r="AM5" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AN5" s="14"/>
       <c r="AO5" s="14"/>
       <c r="AP5" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
@@ -9655,20 +9790,20 @@
       <c r="AT5" s="14"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AW5" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AX5" s="14"/>
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
       <c r="BA5" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BD5" s="14"/>
       <c r="BE5" s="14"/>
@@ -9685,7 +9820,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="13">
         <v>7</v>
@@ -9715,10 +9850,10 @@
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
       <c r="AC6" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
@@ -9729,12 +9864,12 @@
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
       <c r="AM6" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AN6" s="14"/>
       <c r="AO6" s="14"/>
       <c r="AP6" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AQ6" s="14"/>
       <c r="AR6" s="14"/>
@@ -9742,13 +9877,13 @@
       <c r="AT6" s="14"/>
       <c r="AU6" s="14"/>
       <c r="AV6" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AW6" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AX6" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
@@ -9767,7 +9902,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>45</v>
@@ -9776,14 +9911,14 @@
         <v>6</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -9812,23 +9947,23 @@
       <c r="AI7" s="14"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
       <c r="AP7" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AQ7" s="14"/>
       <c r="AR7" s="14"/>
       <c r="AS7" s="14"/>
       <c r="AT7" s="14"/>
       <c r="AU7" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AV7" s="14"/>
       <c r="AW7" s="14"/>
@@ -9850,7 +9985,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>45</v>
@@ -9860,13 +9995,13 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -9896,15 +10031,15 @@
       <c r="AJ8" s="14"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AM8" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AN8" s="14"/>
       <c r="AO8" s="14"/>
       <c r="AP8" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AQ8" s="14"/>
       <c r="AR8" s="14"/>
@@ -9922,7 +10057,7 @@
       <c r="BD8" s="14"/>
       <c r="BE8" s="14"/>
       <c r="BF8" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BG8" s="14"/>
       <c r="BH8" s="14"/>
@@ -9933,17 +10068,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -9953,7 +10088,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -9970,7 +10105,7 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
@@ -9983,10 +10118,10 @@
       <c r="AL9" s="14"/>
       <c r="AM9" s="14"/>
       <c r="AN9" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AO9" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AP9" s="14"/>
       <c r="AQ9" s="14"/>
@@ -9994,7 +10129,7 @@
       <c r="AS9" s="14"/>
       <c r="AT9" s="14"/>
       <c r="AU9" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AV9" s="14"/>
       <c r="AW9" s="14"/>
@@ -10016,28 +10151,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="13">
         <v>6</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
@@ -10062,7 +10197,7 @@
       <c r="AH10" s="14"/>
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -10085,12 +10220,12 @@
       <c r="BC10" s="14"/>
       <c r="BD10" s="14"/>
       <c r="BE10" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BF10" s="14"/>
       <c r="BG10" s="14"/>
       <c r="BH10" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BI10" s="14"/>
     </row>
@@ -10099,10 +10234,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D11" s="15">
         <v>5</v>
@@ -10112,18 +10247,18 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -10138,7 +10273,7 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
@@ -10168,7 +10303,7 @@
       <c r="BC11" s="14"/>
       <c r="BD11" s="14"/>
       <c r="BE11" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BF11" s="14"/>
       <c r="BG11" s="14"/>
@@ -10180,7 +10315,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>45</v>
@@ -10192,7 +10327,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -10201,7 +10336,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -10225,7 +10360,7 @@
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AL12" s="14"/>
       <c r="AM12" s="14"/>
@@ -10235,7 +10370,7 @@
       <c r="AQ12" s="14"/>
       <c r="AR12" s="14"/>
       <c r="AS12" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AT12" s="14"/>
       <c r="AU12" s="14"/>
@@ -10251,7 +10386,7 @@
       <c r="BE12" s="14"/>
       <c r="BF12" s="14"/>
       <c r="BG12" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BH12" s="14"/>
       <c r="BI12" s="14"/>
@@ -10261,7 +10396,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>45</v>
@@ -10275,13 +10410,13 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -10294,7 +10429,7 @@
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
@@ -10306,7 +10441,7 @@
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
       <c r="AI13" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="14"/>
@@ -10328,7 +10463,7 @@
       <c r="BA13" s="14"/>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BD13" s="14"/>
       <c r="BE13" s="14"/>
@@ -10342,7 +10477,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>45</v>
@@ -10354,21 +10489,21 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -10405,7 +10540,7 @@
       <c r="AW14" s="14"/>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AZ14" s="14"/>
       <c r="BA14" s="14"/>
@@ -10423,10 +10558,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="13">
         <v>6</v>
@@ -10434,10 +10569,10 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -10447,7 +10582,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -10459,7 +10594,7 @@
       <c r="X15" s="26"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
@@ -10472,7 +10607,7 @@
       <c r="AI15" s="14"/>
       <c r="AJ15" s="14"/>
       <c r="AK15" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AL15" s="14"/>
       <c r="AM15" s="14"/>
@@ -10494,7 +10629,7 @@
       <c r="BC15" s="14"/>
       <c r="BD15" s="14"/>
       <c r="BE15" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BF15" s="14"/>
       <c r="BG15" s="14"/>
@@ -10506,34 +10641,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" s="29">
         <v>8</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
@@ -10551,13 +10686,13 @@
       <c r="AE16" s="26"/>
       <c r="AF16" s="26"/>
       <c r="AG16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AH16" s="26"/>
       <c r="AI16" s="26"/>
       <c r="AJ16" s="26"/>
       <c r="AK16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AL16" s="26"/>
       <c r="AM16" s="26"/>
@@ -10578,14 +10713,14 @@
       <c r="BB16" s="26"/>
       <c r="BC16" s="26"/>
       <c r="BD16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BE16" s="26"/>
       <c r="BF16" s="26"/>
       <c r="BG16" s="26"/>
       <c r="BH16" s="26"/>
       <c r="BI16" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
@@ -10593,10 +10728,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="29">
         <v>8</v>
@@ -10604,11 +10739,11 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -10621,24 +10756,24 @@
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="U17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="V17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="W17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="X17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Y17" s="26"/>
       <c r="Z17" s="26"/>
       <c r="AA17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AB17" s="26"/>
       <c r="AC17" s="26"/>
@@ -10656,7 +10791,7 @@
       <c r="AO17" s="26"/>
       <c r="AP17" s="26"/>
       <c r="AQ17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AR17" s="26"/>
       <c r="AS17" s="26"/>
@@ -10675,7 +10810,7 @@
       <c r="BF17" s="26"/>
       <c r="BG17" s="26"/>
       <c r="BH17" s="26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BI17" s="26"/>
     </row>
@@ -10684,7 +10819,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>45</v>
@@ -10698,11 +10833,11 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -10719,7 +10854,7 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -10751,12 +10886,12 @@
       <c r="BC18" s="14"/>
       <c r="BD18" s="14"/>
       <c r="BE18" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BF18" s="14"/>
       <c r="BG18" s="14"/>
       <c r="BH18" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BI18" s="14"/>
     </row>
@@ -10765,7 +10900,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>45</v>
@@ -10777,7 +10912,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -10786,7 +10921,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
@@ -10803,10 +10938,10 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AE19" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AF19" s="14"/>
       <c r="AG19" s="14"/>
@@ -10834,7 +10969,7 @@
       <c r="BC19" s="14"/>
       <c r="BD19" s="14"/>
       <c r="BE19" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BF19" s="14"/>
       <c r="BG19" s="14"/>
@@ -10846,10 +10981,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
@@ -10858,17 +10993,17 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -10886,13 +11021,13 @@
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
       <c r="AG20" s="14"/>
       <c r="AH20" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
@@ -10927,10 +11062,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D21" s="15">
         <v>6</v>
@@ -10939,7 +11074,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -10950,7 +11085,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
@@ -10963,15 +11098,15 @@
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AE21" s="14"/>
       <c r="AF21" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
@@ -10993,7 +11128,7 @@
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
       <c r="AZ21" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BA21" s="14"/>
       <c r="BB21" s="14"/>

--- a/convert/origin/data.xlsx
+++ b/convert/origin/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\日立造船\提出\登録用素材01118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\日立造船\提出\登録用素材01119\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D59A513-AD60-4F4B-81D7-680F36454233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51225DC4-D756-4EEA-8399-05894F7C00B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="586" xr2:uid="{19524DF3-9E90-48CC-9147-1C7B375E8DD4}"/>
+    <workbookView xWindow="555" yWindow="885" windowWidth="16455" windowHeight="13710" tabRatio="586" xr2:uid="{19524DF3-9E90-48CC-9147-1C7B375E8DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="モニター文記入一覧1203" sheetId="26" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="463">
   <si>
     <t>AR番号</t>
     <rPh sb="2" eb="4">
@@ -2967,9 +2967,6 @@
     <t>大型の火力発電設備(100MW級)に匹敵し、送電ロスも考慮が不要</t>
   </si>
   <si>
-    <t>約24億人が基本的な衛生施設をを利用できていない (’15年時点)</t>
-  </si>
-  <si>
     <t>スマホも</t>
   </si>
   <si>
@@ -3069,9 +3066,6 @@
     <t>⑦　ニーズ</t>
   </si>
   <si>
-    <t>現在、水深の浅い着床式の公募が開始されています。数年後には水深の深い海域に対象が広がり、浮体式洋上風力発電の導入が進むと考えらています。</t>
-  </si>
-  <si>
     <t>地域の特性に合わせやすい「エネルギーの地産地消」はエネルギーの利活用にとどまらず、災害時のライフライン確保や新しい雇用を創出するなど地域活性化にもつなげたいというニーズが増えています。</t>
   </si>
   <si>
@@ -3256,6 +3250,18 @@
   </si>
   <si>
     <t>Power to Gas　Methanation Equipment/Hydrogen Generation Systems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、水深の浅い着床式の公募が開始されています。数年後には水深の深い海域に対象が広がり、浮体式洋上風力発電の導入が進むと考えられています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約24億人が基本的な衛生施設を利用できていない (’15年時点)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20％</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3645,7 +3651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3799,47 +3805,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3847,17 +3895,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3868,167 +4018,29 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4421,10 +4433,10 @@
   <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -4510,19 +4522,19 @@
       <c r="N1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="39">
@@ -4531,24 +4543,24 @@
       <c r="U1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="58" t="s">
-        <v>405</v>
+      <c r="V1" s="56" t="s">
+        <v>404</v>
       </c>
       <c r="W1" s="39">
         <v>130</v>
       </c>
-      <c r="X1" s="71" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="62" t="s">
+      <c r="X1" s="119" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="60" t="s">
         <v>14</v>
       </c>
       <c r="AH1" s="44">
@@ -4557,7 +4569,7 @@
       <c r="AI1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AJ1" s="61" t="s">
         <v>16</v>
       </c>
       <c r="AK1" s="45">
@@ -4580,38 +4592,38 @@
       </c>
     </row>
     <row r="2" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="100">
+      <c r="A2" s="95">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="82">
+      <c r="I2" s="93">
         <f t="shared" ref="I2:I4" si="0">LEN(H2)</f>
         <v>15</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="K2" s="82">
+      <c r="K2" s="93">
         <f t="shared" ref="K2:K4" si="1">LEN(J2)</f>
         <v>91</v>
       </c>
@@ -4625,98 +4637,98 @@
         <f t="shared" ref="N2:N35" si="2">LEN(M2)</f>
         <v>6</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="55">
+      <c r="P2" s="53">
         <v>2</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="R2" s="55">
+      <c r="R2" s="53">
         <v>4</v>
       </c>
-      <c r="S2" s="65" t="s">
+      <c r="S2" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="T2" s="102">
+      <c r="T2" s="75">
         <f t="shared" ref="T2:T38" si="3">LEN(S2)</f>
         <v>80</v>
       </c>
       <c r="U2" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="V2" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="W2" s="102">
+      <c r="V2" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="W2" s="75">
         <f t="shared" ref="W2:W38" si="4">LEN(V2)</f>
-        <v>68</v>
-      </c>
-      <c r="X2" s="69">
+        <v>69</v>
+      </c>
+      <c r="X2" s="77">
         <v>5</v>
       </c>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="69" t="s">
+      <c r="Z2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="69" t="s">
+      <c r="AA2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="69" t="s">
+      <c r="AB2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="69" t="s">
+      <c r="AC2" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="AH2" s="102">
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH2" s="75">
         <f t="shared" ref="AH2:AH38" si="5">LEN(AG2)</f>
         <v>133</v>
       </c>
       <c r="AI2" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ2" s="65" t="s">
-        <v>445</v>
-      </c>
-      <c r="AK2" s="108">
+      <c r="AJ2" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK2" s="89">
         <f t="shared" ref="AK2:AK38" si="6">LEN(AJ2)</f>
         <v>57</v>
       </c>
-      <c r="AL2" s="112" t="s">
+      <c r="AL2" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="114" t="s">
+      <c r="AM2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="116" t="s">
+      <c r="AN2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="AO2" s="116" t="s">
+      <c r="AO2" s="81" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="101"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="83"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="37"/>
       <c r="M3" s="50" t="s">
         <v>346</v>
@@ -4725,75 +4737,75 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="55">
+      <c r="P3" s="53">
         <v>27</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="53">
         <v>21</v>
       </c>
-      <c r="S3" s="66"/>
-      <c r="T3" s="103"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="76"/>
       <c r="U3" s="37"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="103"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="76"/>
       <c r="AI3" s="37"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="117"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
     </row>
     <row r="4" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="100">
+      <c r="A4" s="95">
         <v>2</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="93">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="93">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
@@ -4807,94 +4819,94 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="53">
         <v>7</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="53">
         <v>10</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="102">
+      <c r="T4" s="75">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="U4" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="102">
+      <c r="W4" s="75">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="X4" s="69">
+      <c r="X4" s="77">
         <v>3</v>
       </c>
-      <c r="Y4" s="69" t="s">
+      <c r="Y4" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="69" t="s">
+      <c r="Z4" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="69" t="s">
+      <c r="AA4" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="AH4" s="102">
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH4" s="75">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="AI4" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ4" s="65" t="s">
-        <v>446</v>
-      </c>
-      <c r="AK4" s="108">
+      <c r="AJ4" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="AK4" s="89">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="AL4" s="112" t="s">
+      <c r="AL4" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="114" t="s">
+      <c r="AM4" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="116" t="s">
+      <c r="AN4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="AO4" s="116" t="s">
+      <c r="AO4" s="81" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="101"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="83"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="94"/>
       <c r="L5" s="37"/>
       <c r="M5" s="50" t="s">
         <v>49</v>
@@ -4903,75 +4915,75 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="53">
         <v>32</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R5" s="53">
         <v>38</v>
       </c>
-      <c r="S5" s="66"/>
-      <c r="T5" s="103"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="76"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="103"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="76"/>
       <c r="AI5" s="37"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="117"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
     </row>
     <row r="6" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="100">
+      <c r="A6" s="95">
         <v>3</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="93">
         <f>LEN(H6)</f>
         <v>26</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="93">
         <f>LEN(J6)</f>
         <v>84</v>
       </c>
@@ -4985,177 +4997,177 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="53">
         <v>6</v>
       </c>
-      <c r="Q6" s="54" t="s">
+      <c r="Q6" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="53">
         <v>6</v>
       </c>
-      <c r="S6" s="67" t="s">
+      <c r="S6" s="122" t="s">
         <v>361</v>
       </c>
-      <c r="T6" s="102">
+      <c r="T6" s="75">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="U6" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V6" s="65" t="s">
-        <v>407</v>
-      </c>
-      <c r="W6" s="102">
+      <c r="V6" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="W6" s="75">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="X6" s="69">
+      <c r="X6" s="77">
         <v>6</v>
       </c>
-      <c r="Y6" s="69" t="s">
+      <c r="Y6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Z6" s="69" t="s">
+      <c r="Z6" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="69" t="s">
+      <c r="AA6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="69" t="s">
+      <c r="AB6" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AC6" s="69" t="s">
+      <c r="AC6" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="AD6" s="69" t="s">
+      <c r="AD6" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="AH6" s="102">
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH6" s="75">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="AI6" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ6" s="67" t="s">
-        <v>447</v>
-      </c>
-      <c r="AK6" s="108">
+      <c r="AJ6" s="122" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK6" s="89">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="AL6" s="112" t="s">
+      <c r="AL6" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="114" t="s">
+      <c r="AM6" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AN6" s="116" t="s">
+      <c r="AN6" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="AO6" s="116" t="s">
+      <c r="AO6" s="81" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="101"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="83"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="126" t="s">
         <v>348</v>
       </c>
       <c r="N7" s="37">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="53">
         <v>31</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="53">
         <v>28</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="103"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="76"/>
       <c r="U7" s="37"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="103"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="76"/>
       <c r="AI7" s="37"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="113"/>
-      <c r="AM7" s="115"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="117"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="82"/>
     </row>
     <row r="8" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="100">
+      <c r="A8" s="95">
         <v>4</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="90" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="E8" s="94" t="s">
+      <c r="C8" s="97" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="93">
         <f>LEN(H8)</f>
         <v>31</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="109" t="s">
         <v>279</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="93">
         <f>LEN(J8)</f>
         <v>106</v>
       </c>
@@ -5169,102 +5181,102 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O8" s="54" t="s">
+      <c r="O8" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="53">
         <v>7</v>
       </c>
-      <c r="Q8" s="54" t="s">
+      <c r="Q8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="53">
         <v>10</v>
       </c>
-      <c r="S8" s="65" t="s">
+      <c r="S8" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="T8" s="102">
+      <c r="T8" s="75">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="U8" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="V8" s="65" t="s">
-        <v>408</v>
-      </c>
-      <c r="W8" s="102">
+      <c r="V8" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="W8" s="75">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="77">
         <v>7</v>
       </c>
-      <c r="Y8" s="69" t="s">
+      <c r="Y8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="Z8" s="69" t="s">
+      <c r="Z8" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="69" t="s">
+      <c r="AA8" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AB8" s="69" t="s">
+      <c r="AB8" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD8" s="69" t="s">
+      <c r="AC8" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD8" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="AE8" s="69" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="65" t="s">
-        <v>432</v>
-      </c>
-      <c r="AH8" s="102">
+      <c r="AE8" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH8" s="75">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="AI8" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ8" s="65" t="s">
-        <v>448</v>
-      </c>
-      <c r="AK8" s="108">
+      <c r="AJ8" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK8" s="89">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="AL8" s="112" t="s">
+      <c r="AL8" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AM8" s="114" t="s">
+      <c r="AM8" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AN8" s="116" t="s">
+      <c r="AN8" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AO8" s="116" t="s">
+      <c r="AO8" s="81" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="101"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="83"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="94"/>
       <c r="L9" s="37"/>
       <c r="M9" s="50" t="s">
         <v>349</v>
@@ -5273,75 +5285,75 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="53">
         <v>28</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R9" s="53">
         <v>35</v>
       </c>
-      <c r="S9" s="66"/>
-      <c r="T9" s="103"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="37"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="103"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="76"/>
       <c r="AI9" s="37"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="115"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="117"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
     </row>
     <row r="10" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="100">
+      <c r="A10" s="95">
         <v>5</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="93">
         <f>LEN(H10)</f>
         <v>32</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="93">
         <f>LEN(J10)</f>
         <v>73</v>
       </c>
@@ -5355,100 +5367,100 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="53">
         <v>8</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="53">
         <v>3</v>
       </c>
-      <c r="S10" s="65" t="s">
+      <c r="S10" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="102">
+      <c r="T10" s="75">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="U10" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="V10" s="65" t="s">
-        <v>409</v>
-      </c>
-      <c r="W10" s="102">
+      <c r="V10" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="W10" s="75">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="X10" s="69">
+      <c r="X10" s="77">
         <v>6</v>
       </c>
-      <c r="Y10" s="69" t="s">
+      <c r="Y10" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="Z10" s="69" t="s">
+      <c r="Z10" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="69" t="s">
+      <c r="AA10" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="AB10" s="69" t="s">
+      <c r="AB10" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AC10" s="69" t="s">
+      <c r="AC10" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="65" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH10" s="102">
+      <c r="AD10" s="77" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH10" s="75">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="AI10" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ10" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="AK10" s="108">
+      <c r="AJ10" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK10" s="89">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="AL10" s="112" t="s">
+      <c r="AL10" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM10" s="114" t="s">
+      <c r="AM10" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="AN10" s="116" t="s">
+      <c r="AN10" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="AO10" s="116" t="s">
+      <c r="AO10" s="81" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="101"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="83"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="37"/>
       <c r="M11" s="50" t="s">
         <v>350</v>
@@ -5457,75 +5469,75 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="O11" s="54" t="s">
+      <c r="O11" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11" s="53">
         <v>37</v>
       </c>
-      <c r="Q11" s="54" t="s">
+      <c r="Q11" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="53">
         <v>23</v>
       </c>
-      <c r="S11" s="66"/>
-      <c r="T11" s="103"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="76"/>
       <c r="U11" s="37"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="103"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="76"/>
       <c r="AI11" s="37"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="109"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="115"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
     </row>
     <row r="12" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="100">
+      <c r="A12" s="95">
         <v>6</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="93">
         <f t="shared" ref="I12" si="7">LEN(H12)</f>
         <v>29</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="93">
         <f t="shared" ref="K12" si="8">LEN(J12)</f>
         <v>106</v>
       </c>
@@ -5539,100 +5551,100 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O12" s="54" t="s">
+      <c r="O12" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="53">
         <v>4</v>
       </c>
-      <c r="Q12" s="54" t="s">
+      <c r="Q12" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="53">
         <v>3</v>
       </c>
-      <c r="S12" s="67" t="s">
+      <c r="S12" s="122" t="s">
         <v>368</v>
       </c>
-      <c r="T12" s="102">
+      <c r="T12" s="75">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="U12" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V12" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="W12" s="102">
+      <c r="V12" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="W12" s="75">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="X12" s="69">
+      <c r="X12" s="77">
         <v>6</v>
       </c>
-      <c r="Y12" s="69" t="s">
+      <c r="Y12" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Z12" s="69" t="s">
+      <c r="Z12" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AA12" s="69" t="s">
+      <c r="AA12" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" s="69" t="s">
+      <c r="AB12" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AC12" s="69" t="s">
+      <c r="AC12" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="69" t="s">
+      <c r="AD12" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="65" t="s">
-        <v>434</v>
-      </c>
-      <c r="AH12" s="102">
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="79" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH12" s="75">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="AI12" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ12" s="65" t="s">
+      <c r="AJ12" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="AK12" s="108">
+      <c r="AK12" s="89">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="AL12" s="112" t="s">
+      <c r="AL12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM12" s="114" t="s">
+      <c r="AM12" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="AN12" s="116" t="s">
+      <c r="AN12" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AO12" s="116" t="s">
+      <c r="AO12" s="81" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="101"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="83"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="94"/>
       <c r="L13" s="37"/>
       <c r="M13" s="50" t="s">
         <v>351</v>
@@ -5641,75 +5653,75 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="O13" s="57" t="s">
+      <c r="O13" s="126" t="s">
         <v>369</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="53">
         <v>30</v>
       </c>
-      <c r="Q13" s="54" t="s">
+      <c r="Q13" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="53">
         <v>21</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="103"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="76"/>
       <c r="U13" s="37"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="103"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="76"/>
       <c r="AI13" s="37"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="115"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="117"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
     </row>
     <row r="14" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="100">
+      <c r="A14" s="95">
         <v>7</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="97" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="93">
         <f t="shared" ref="I14" si="9">LEN(H14)</f>
         <v>35</v>
       </c>
-      <c r="J14" s="74" t="s">
+      <c r="J14" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="93">
         <f t="shared" ref="K14" si="10">LEN(J14)</f>
         <v>104</v>
       </c>
@@ -5723,98 +5735,98 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="53">
         <v>4</v>
       </c>
-      <c r="Q14" s="54" t="s">
+      <c r="Q14" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="53">
         <v>8</v>
       </c>
-      <c r="S14" s="65" t="s">
+      <c r="S14" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="T14" s="102">
+      <c r="T14" s="75">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="U14" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V14" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="W14" s="102">
+      <c r="V14" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="W14" s="75">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="X14" s="69">
+      <c r="X14" s="77">
         <v>6</v>
       </c>
-      <c r="Y14" s="69" t="s">
+      <c r="Y14" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="69" t="s">
+      <c r="Z14" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="AA14" s="69" t="s">
+      <c r="AA14" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" s="69" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC14" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="65" t="s">
-        <v>435</v>
-      </c>
-      <c r="AH14" s="102">
+      <c r="AB14" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC14" s="77" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH14" s="75">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="AI14" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ14" s="65" t="s">
-        <v>450</v>
-      </c>
-      <c r="AK14" s="108">
+      <c r="AJ14" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK14" s="89">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="AL14" s="112" t="s">
+      <c r="AL14" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AM14" s="114" t="s">
+      <c r="AM14" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="AN14" s="116" t="s">
+      <c r="AN14" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="AO14" s="116" t="s">
+      <c r="AO14" s="81" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="101"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="83"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="94"/>
       <c r="L15" s="37"/>
       <c r="M15" s="50" t="s">
         <v>353</v>
@@ -5823,75 +5835,75 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O15" s="54" t="s">
+      <c r="O15" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="53">
         <v>25</v>
       </c>
-      <c r="Q15" s="54" t="s">
+      <c r="Q15" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="53">
         <v>32</v>
       </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="103"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="76"/>
       <c r="U15" s="37"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="103"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="76"/>
       <c r="AI15" s="37"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="115"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="117"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
     </row>
     <row r="16" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="100">
+      <c r="A16" s="95">
         <v>8</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="93">
         <f t="shared" ref="I16" si="11">LEN(H16)</f>
         <v>36</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="93">
         <f t="shared" ref="K16" si="12">LEN(J16)</f>
         <v>106</v>
       </c>
@@ -5905,359 +5917,359 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O16" s="54" t="s">
+      <c r="O16" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16" s="53">
         <v>8</v>
       </c>
-      <c r="Q16" s="54" t="s">
+      <c r="Q16" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="53">
         <v>7</v>
       </c>
-      <c r="S16" s="65" t="s">
+      <c r="S16" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="T16" s="102">
+      <c r="T16" s="75">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="U16" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V16" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="W16" s="102">
+      <c r="V16" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="W16" s="75">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="X16" s="69">
+      <c r="X16" s="77">
         <v>6</v>
       </c>
-      <c r="Y16" s="69" t="s">
+      <c r="Y16" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="Z16" s="69" t="s">
+      <c r="Z16" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AA16" s="69" t="s">
-        <v>427</v>
-      </c>
-      <c r="AB16" s="69" t="s">
+      <c r="AA16" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB16" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="AC16" s="69" t="s">
+      <c r="AC16" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AD16" s="69" t="s">
+      <c r="AD16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="65" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH16" s="102">
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH16" s="75">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="AI16" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ16" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="AK16" s="108">
+      <c r="AJ16" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="AK16" s="89">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="AL16" s="112" t="s">
+      <c r="AL16" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="AM16" s="114" t="s">
+      <c r="AM16" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="AN16" s="116" t="s">
+      <c r="AN16" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="AO16" s="116" t="s">
+      <c r="AO16" s="81" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="101"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="83"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="126" t="s">
         <v>354</v>
       </c>
       <c r="N17" s="37">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="O17" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="P17" s="55">
+      <c r="O17" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="P17" s="53">
         <v>33</v>
       </c>
-      <c r="Q17" s="54" t="s">
+      <c r="Q17" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="53">
         <v>33</v>
       </c>
-      <c r="S17" s="66"/>
-      <c r="T17" s="103"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="76"/>
       <c r="U17" s="37"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="103"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="76"/>
       <c r="AI17" s="37"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="115"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="117"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="86"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
     </row>
     <row r="18" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="100">
+      <c r="A18" s="95">
         <v>9</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="99" t="s">
         <v>295</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="92" t="s">
+      <c r="F18" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="107" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="82">
+      <c r="I18" s="93">
         <f t="shared" ref="I18" si="13">LEN(H18)</f>
         <v>23</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="109" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="93">
         <f t="shared" ref="K18" si="14">LEN(J18)</f>
         <v>102</v>
       </c>
       <c r="L18" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="126" t="s">
         <v>120</v>
       </c>
       <c r="N18" s="37">
         <f>LEN(M18)</f>
         <v>6</v>
       </c>
-      <c r="O18" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="P18" s="55">
+      <c r="O18" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="P18" s="53">
         <v>4</v>
       </c>
-      <c r="Q18" s="54" t="s">
+      <c r="Q18" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="53">
         <v>3</v>
       </c>
-      <c r="S18" s="65" t="s">
+      <c r="S18" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="T18" s="102">
+      <c r="T18" s="75">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="U18" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V18" s="65" t="s">
-        <v>413</v>
-      </c>
-      <c r="W18" s="102">
+      <c r="V18" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="W18" s="75">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="X18" s="69">
+      <c r="X18" s="77">
         <v>5</v>
       </c>
-      <c r="Y18" s="69" t="s">
+      <c r="Y18" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="Z18" s="69" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA18" s="69" t="s">
+      <c r="Z18" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA18" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="AB18" s="69" t="s">
+      <c r="AB18" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="AC18" s="69" t="s">
+      <c r="AC18" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="65" t="s">
-        <v>437</v>
-      </c>
-      <c r="AH18" s="102">
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="79" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH18" s="75">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="AI18" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ18" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="AK18" s="108">
+      <c r="AJ18" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="AK18" s="89">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="AL18" s="110" t="s">
+      <c r="AL18" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="AM18" s="114" t="s">
+      <c r="AM18" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="AN18" s="116" t="s">
+      <c r="AN18" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="AO18" s="116" t="s">
+      <c r="AO18" s="81" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="101"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="83"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="94"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="126" t="s">
         <v>337</v>
       </c>
       <c r="N19" s="37">
         <f>LEN(M19)</f>
         <v>17</v>
       </c>
-      <c r="O19" s="54" t="s">
-        <v>377</v>
-      </c>
-      <c r="P19" s="55">
+      <c r="O19" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="P19" s="53">
         <v>27</v>
       </c>
-      <c r="Q19" s="54" t="s">
+      <c r="Q19" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="55">
+      <c r="R19" s="53">
         <v>20</v>
       </c>
-      <c r="S19" s="66"/>
-      <c r="T19" s="103"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="76"/>
       <c r="U19" s="37"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="103"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="76"/>
       <c r="AI19" s="37"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="109"/>
-      <c r="AL19" s="111"/>
-      <c r="AM19" s="115"/>
-      <c r="AN19" s="117"/>
-      <c r="AO19" s="117"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
     </row>
     <row r="20" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="100">
+      <c r="A20" s="95">
         <v>10</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="115" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="105" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="93">
         <f t="shared" ref="I20" si="15">LEN(H20)</f>
         <v>32</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="K20" s="82">
+      <c r="K20" s="93">
         <f t="shared" ref="K20" si="16">LEN(J20)</f>
         <v>98</v>
       </c>
@@ -6271,98 +6283,98 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O20" s="54" t="s">
+      <c r="O20" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="53">
         <v>5</v>
       </c>
-      <c r="Q20" s="54" t="s">
+      <c r="Q20" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="53">
         <v>3</v>
       </c>
-      <c r="S20" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="T20" s="102">
+      <c r="S20" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="T20" s="75">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="U20" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V20" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="W20" s="102">
+      <c r="V20" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="W20" s="75">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="X20" s="69">
+      <c r="X20" s="77">
         <v>5</v>
       </c>
-      <c r="Y20" s="69" t="s">
+      <c r="Y20" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="Z20" s="69" t="s">
+      <c r="Z20" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="AA20" s="69" t="s">
+      <c r="AA20" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="AB20" s="69" t="s">
+      <c r="AB20" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="AC20" s="69" t="s">
+      <c r="AC20" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="65" t="s">
-        <v>438</v>
-      </c>
-      <c r="AH20" s="102">
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH20" s="75">
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="AI20" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ20" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="AK20" s="108">
+      <c r="AJ20" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK20" s="89">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="AL20" s="112" t="s">
+      <c r="AL20" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM20" s="114" t="s">
+      <c r="AM20" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AN20" s="116" t="s">
+      <c r="AN20" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="AO20" s="116" t="s">
+      <c r="AO20" s="81" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="101"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="83"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="94"/>
       <c r="L21" s="37"/>
       <c r="M21" s="50" t="s">
         <v>338</v>
@@ -6371,75 +6383,75 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="P21" s="53">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="P21" s="55">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="R21" s="55">
+      <c r="R21" s="53">
         <v>24</v>
       </c>
-      <c r="S21" s="66"/>
-      <c r="T21" s="103"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="76"/>
       <c r="U21" s="37"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="103"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="76"/>
       <c r="AI21" s="37"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="109"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="115"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="117"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
     </row>
     <row r="22" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="100">
+      <c r="A22" s="95">
         <v>11</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="82">
+      <c r="I22" s="93">
         <f t="shared" ref="I22" si="17">LEN(H22)</f>
         <v>31</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="K22" s="82">
+      <c r="K22" s="93">
         <f t="shared" ref="K22" si="18">LEN(J22)</f>
         <v>93</v>
       </c>
@@ -6453,98 +6465,98 @@
         <f>LEN(M22)</f>
         <v>8</v>
       </c>
-      <c r="O22" s="54" t="s">
+      <c r="O22" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="55">
+      <c r="P22" s="53">
         <v>5</v>
       </c>
-      <c r="Q22" s="54" t="s">
+      <c r="Q22" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="R22" s="55">
+      <c r="R22" s="53">
         <v>6</v>
       </c>
-      <c r="S22" s="65" t="s">
+      <c r="S22" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="T22" s="102">
+      <c r="T22" s="75">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V22" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="W22" s="102">
+      <c r="V22" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="W22" s="75">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="X22" s="69">
+      <c r="X22" s="77">
         <v>5</v>
       </c>
-      <c r="Y22" s="69" t="s">
+      <c r="Y22" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="Z22" s="69" t="s">
+      <c r="Z22" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AA22" s="69" t="s">
+      <c r="AA22" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="AB22" s="69" t="s">
+      <c r="AB22" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AC22" s="69" t="s">
+      <c r="AC22" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="65" t="s">
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="79" t="s">
         <v>250</v>
       </c>
-      <c r="AH22" s="102">
+      <c r="AH22" s="75">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="AI22" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ22" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="AK22" s="108">
+      <c r="AJ22" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="AK22" s="89">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="AL22" s="112" t="s">
+      <c r="AL22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM22" s="114" t="s">
+      <c r="AM22" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="AN22" s="116" t="s">
+      <c r="AN22" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="AO22" s="116" t="s">
+      <c r="AO22" s="81" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="101"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="83"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="37"/>
       <c r="M23" s="50" t="s">
         <v>340</v>
@@ -6553,182 +6565,182 @@
         <f>LEN(M23)</f>
         <v>27</v>
       </c>
-      <c r="O23" s="54" t="s">
+      <c r="O23" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="P23" s="53">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="P23" s="55">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="54" t="s">
-        <v>382</v>
-      </c>
-      <c r="R23" s="55">
+      <c r="R23" s="53">
         <v>28</v>
       </c>
-      <c r="S23" s="66"/>
-      <c r="T23" s="103"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="76"/>
       <c r="U23" s="37"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="103"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="76"/>
       <c r="AI23" s="37"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="109"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="115"/>
-      <c r="AN23" s="117"/>
-      <c r="AO23" s="117"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
     </row>
     <row r="24" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="100">
+      <c r="A24" s="95">
         <v>12</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="93">
         <f t="shared" ref="I24" si="19">LEN(H24)</f>
         <v>33</v>
       </c>
-      <c r="J24" s="74" t="s">
+      <c r="J24" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K24" s="93">
         <f t="shared" ref="K24" si="20">LEN(J24)</f>
         <v>89</v>
       </c>
       <c r="L24" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="M24" s="52">
-        <v>0.2</v>
+      <c r="M24" s="129" t="s">
+        <v>462</v>
       </c>
       <c r="N24" s="37">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O24" s="54" t="s">
+      <c r="O24" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="55">
+      <c r="P24" s="53">
         <v>4</v>
       </c>
-      <c r="Q24" s="54" t="s">
+      <c r="Q24" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="R24" s="55">
+      <c r="R24" s="53">
         <v>5</v>
       </c>
-      <c r="S24" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="T24" s="102">
+      <c r="S24" s="122" t="s">
+        <v>382</v>
+      </c>
+      <c r="T24" s="75">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="U24" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V24" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="W24" s="102">
+      <c r="V24" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="W24" s="75">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="X24" s="69">
+      <c r="X24" s="77">
         <v>6</v>
       </c>
-      <c r="Y24" s="69" t="s">
+      <c r="Y24" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="Z24" s="69" t="s">
+      <c r="Z24" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="AA24" s="69" t="s">
+      <c r="AA24" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AB24" s="69" t="s">
+      <c r="AB24" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="AC24" s="69" t="s">
+      <c r="AC24" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="AD24" s="69" t="s">
+      <c r="AD24" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="65" t="s">
-        <v>439</v>
-      </c>
-      <c r="AH24" s="102">
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH24" s="75">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="AI24" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ24" s="65" t="s">
-        <v>455</v>
-      </c>
-      <c r="AK24" s="108">
+      <c r="AJ24" s="79" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK24" s="89">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="AL24" s="112" t="s">
+      <c r="AL24" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM24" s="114" t="s">
+      <c r="AM24" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="AN24" s="116" t="s">
+      <c r="AN24" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="AO24" s="116" t="s">
+      <c r="AO24" s="81" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="101"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="83"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="94"/>
       <c r="L25" s="37"/>
       <c r="M25" s="50" t="s">
         <v>248</v>
@@ -6737,75 +6749,75 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="O25" s="54" t="s">
+      <c r="O25" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="P25" s="53">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="P25" s="55">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="54" t="s">
-        <v>385</v>
-      </c>
-      <c r="R25" s="55">
+      <c r="R25" s="53">
         <v>24</v>
       </c>
-      <c r="S25" s="68"/>
-      <c r="T25" s="103"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="76"/>
       <c r="U25" s="37"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="103"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="76"/>
       <c r="AI25" s="37"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="109"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="115"/>
-      <c r="AN25" s="117"/>
-      <c r="AO25" s="117"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
     </row>
     <row r="26" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="100">
+      <c r="A26" s="95">
         <v>13</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="G26" s="82" t="s">
+      <c r="G26" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="93">
         <f t="shared" ref="I26" si="21">LEN(H26)</f>
         <v>22</v>
       </c>
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="93">
         <f t="shared" ref="K26" si="22">LEN(J26)</f>
         <v>104</v>
       </c>
@@ -6819,100 +6831,100 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O26" s="54" t="s">
+      <c r="O26" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="P26" s="55">
+      <c r="P26" s="53">
         <v>7</v>
       </c>
-      <c r="Q26" s="54" t="s">
+      <c r="Q26" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="R26" s="53">
+        <v>7</v>
+      </c>
+      <c r="S26" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="R26" s="55">
-        <v>7</v>
-      </c>
-      <c r="S26" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="T26" s="102">
+      <c r="T26" s="75">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="U26" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V26" s="65" t="s">
+      <c r="V26" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="W26" s="102">
+      <c r="W26" s="75">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="X26" s="69">
+      <c r="X26" s="77">
         <v>6</v>
       </c>
-      <c r="Y26" s="69" t="s">
+      <c r="Y26" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="Z26" s="69" t="s">
+      <c r="Z26" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="AA26" s="69" t="s">
+      <c r="AA26" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="AB26" s="69" t="s">
+      <c r="AB26" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="AC26" s="69" t="s">
+      <c r="AC26" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="AD26" s="69" t="s">
+      <c r="AD26" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="AH26" s="102">
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="79" t="s">
+        <v>438</v>
+      </c>
+      <c r="AH26" s="75">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="AI26" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ26" s="67" t="s">
-        <v>456</v>
-      </c>
-      <c r="AK26" s="108">
+      <c r="AJ26" s="122" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK26" s="89">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="AL26" s="112" t="s">
+      <c r="AL26" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AM26" s="114" t="s">
+      <c r="AM26" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="AN26" s="116" t="s">
+      <c r="AN26" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="AO26" s="116" t="s">
+      <c r="AO26" s="81" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="101"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="83"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="94"/>
       <c r="L27" s="37"/>
       <c r="M27" s="50" t="s">
         <v>165</v>
@@ -6921,75 +6933,75 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="O27" s="57" t="s">
+      <c r="O27" s="126" t="s">
+        <v>387</v>
+      </c>
+      <c r="P27" s="53">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="P27" s="55">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="54" t="s">
-        <v>389</v>
-      </c>
-      <c r="R27" s="55">
+      <c r="R27" s="53">
         <v>24</v>
       </c>
-      <c r="S27" s="66"/>
-      <c r="T27" s="103"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="76"/>
       <c r="U27" s="37"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="103"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="76"/>
       <c r="AI27" s="37"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="109"/>
-      <c r="AL27" s="113"/>
-      <c r="AM27" s="115"/>
-      <c r="AN27" s="117"/>
-      <c r="AO27" s="117"/>
+      <c r="AJ27" s="123"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="84"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
     </row>
     <row r="28" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="100">
+      <c r="A28" s="95">
         <v>14</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="124" t="s">
         <v>315</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="127" t="s">
         <v>316</v>
       </c>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="82">
+      <c r="I28" s="93">
         <f t="shared" ref="I28" si="23">LEN(H28)</f>
         <v>33</v>
       </c>
-      <c r="J28" s="74" t="s">
+      <c r="J28" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="82">
+      <c r="K28" s="93">
         <f t="shared" ref="K28" si="24">LEN(J28)</f>
         <v>111</v>
       </c>
@@ -7003,104 +7015,104 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O28" s="54" t="s">
+      <c r="O28" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="P28" s="55">
+      <c r="P28" s="53">
         <v>9</v>
       </c>
-      <c r="Q28" s="54" t="s">
+      <c r="Q28" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="R28" s="55">
+      <c r="R28" s="53">
         <v>10</v>
       </c>
-      <c r="S28" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="T28" s="102">
+      <c r="S28" s="79" t="s">
+        <v>389</v>
+      </c>
+      <c r="T28" s="75">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="U28" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="V28" s="65" t="s">
+      <c r="V28" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="W28" s="102">
+      <c r="W28" s="75">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="X28" s="69">
+      <c r="X28" s="77">
         <v>8</v>
       </c>
-      <c r="Y28" s="69" t="s">
+      <c r="Y28" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="Z28" s="69" t="s">
+      <c r="Z28" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="AA28" s="69" t="s">
+      <c r="AA28" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="AB28" s="69" t="s">
+      <c r="AB28" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="AC28" s="69" t="s">
+      <c r="AC28" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="AD28" s="69" t="s">
+      <c r="AD28" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="AE28" s="69" t="s">
+      <c r="AE28" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="AF28" s="69" t="s">
+      <c r="AF28" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AG28" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH28" s="102">
+      <c r="AG28" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH28" s="75">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="AI28" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="AJ28" s="65" t="s">
+      <c r="AJ28" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="AK28" s="108">
+      <c r="AK28" s="89">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="AL28" s="112" t="s">
+      <c r="AL28" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AM28" s="114" t="s">
+      <c r="AM28" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="AN28" s="116" t="s">
+      <c r="AN28" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="AO28" s="116" t="s">
+      <c r="AO28" s="81" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="101"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="83"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="94"/>
       <c r="L29" s="37"/>
       <c r="M29" s="50" t="s">
         <v>341</v>
@@ -7109,75 +7121,75 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="O29" s="54" t="s">
+      <c r="O29" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="P29" s="55">
+      <c r="P29" s="53">
         <v>37</v>
       </c>
-      <c r="Q29" s="54" t="s">
+      <c r="Q29" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="R29" s="55">
+      <c r="R29" s="53">
         <v>35</v>
       </c>
-      <c r="S29" s="66"/>
-      <c r="T29" s="103"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="76"/>
       <c r="U29" s="46"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="70"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="103"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="76"/>
       <c r="AI29" s="37"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="109"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="115"/>
-      <c r="AN29" s="117"/>
-      <c r="AO29" s="117"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
     </row>
     <row r="30" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="100">
+      <c r="A30" s="95">
         <v>15</v>
       </c>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="D30" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="80" t="s">
+      <c r="H30" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="82">
+      <c r="I30" s="93">
         <f t="shared" ref="I30" si="25">LEN(H30)</f>
         <v>28</v>
       </c>
-      <c r="J30" s="74" t="s">
+      <c r="J30" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="K30" s="82">
+      <c r="K30" s="93">
         <f t="shared" ref="K30" si="26">LEN(J30)</f>
         <v>93</v>
       </c>
@@ -7191,104 +7203,104 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O30" s="54" t="s">
+      <c r="O30" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="P30" s="55">
+      <c r="P30" s="53">
         <v>5</v>
       </c>
-      <c r="Q30" s="54" t="s">
+      <c r="Q30" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="R30" s="55">
+      <c r="R30" s="53">
         <v>7</v>
       </c>
-      <c r="S30" s="65" t="s">
-        <v>391</v>
-      </c>
-      <c r="T30" s="102">
+      <c r="S30" s="79" t="s">
+        <v>390</v>
+      </c>
+      <c r="T30" s="75">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="U30" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="V30" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="W30" s="102">
+      <c r="V30" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="W30" s="75">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="X30" s="69">
+      <c r="X30" s="77">
         <v>8</v>
       </c>
-      <c r="Y30" s="69" t="s">
+      <c r="Y30" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="Z30" s="69" t="s">
+      <c r="Z30" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="AA30" s="69" t="s">
+      <c r="AA30" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="AB30" s="69" t="s">
+      <c r="AB30" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="AC30" s="69" t="s">
+      <c r="AC30" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="AD30" s="69" t="s">
+      <c r="AD30" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="AE30" s="69" t="s">
+      <c r="AE30" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="AF30" s="69" t="s">
+      <c r="AF30" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="AG30" s="65" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH30" s="102">
+      <c r="AG30" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH30" s="75">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="AI30" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ30" s="65" t="s">
-        <v>457</v>
-      </c>
-      <c r="AK30" s="108">
+      <c r="AJ30" s="79" t="s">
+        <v>455</v>
+      </c>
+      <c r="AK30" s="89">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="AL30" s="112" t="s">
+      <c r="AL30" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AM30" s="114" t="s">
+      <c r="AM30" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AN30" s="116" t="s">
+      <c r="AN30" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="AO30" s="116" t="s">
+      <c r="AO30" s="81" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="101"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="83"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="94"/>
       <c r="L31" s="37"/>
       <c r="M31" s="50" t="s">
         <v>193</v>
@@ -7297,75 +7309,75 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="O31" s="54" t="s">
+      <c r="O31" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="P31" s="53">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="P31" s="55">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="R31" s="55">
+      <c r="R31" s="53">
         <v>25</v>
       </c>
-      <c r="S31" s="66"/>
-      <c r="T31" s="103"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="76"/>
       <c r="U31" s="37"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="70"/>
-      <c r="AC31" s="70"/>
-      <c r="AD31" s="70"/>
-      <c r="AE31" s="70"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="103"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="76"/>
       <c r="AI31" s="37"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="109"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="115"/>
-      <c r="AN31" s="117"/>
-      <c r="AO31" s="117"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="86"/>
+      <c r="AM31" s="84"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
     </row>
     <row r="32" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="100">
+      <c r="A32" s="95">
         <v>16</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="F32" s="92" t="s">
+      <c r="F32" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="82" t="s">
+      <c r="G32" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="I32" s="82">
+      <c r="I32" s="93">
         <f t="shared" ref="I32" si="27">LEN(H32)</f>
         <v>32</v>
       </c>
-      <c r="J32" s="74" t="s">
+      <c r="J32" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="K32" s="82">
+      <c r="K32" s="93">
         <f t="shared" ref="K32" si="28">LEN(J32)</f>
         <v>105</v>
       </c>
@@ -7379,98 +7391,98 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O32" s="54" t="s">
+      <c r="O32" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="P32" s="55">
+      <c r="P32" s="53">
         <v>7</v>
       </c>
-      <c r="Q32" s="54" t="s">
+      <c r="Q32" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="R32" s="55">
+      <c r="R32" s="53">
         <v>4</v>
       </c>
-      <c r="S32" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="T32" s="102">
+      <c r="S32" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="T32" s="75">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="U32" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V32" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="W32" s="102">
+      <c r="V32" s="122" t="s">
+        <v>416</v>
+      </c>
+      <c r="W32" s="75">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="X32" s="69">
+      <c r="X32" s="77">
         <v>5</v>
       </c>
-      <c r="Y32" s="69" t="s">
+      <c r="Y32" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" s="69" t="s">
+      <c r="Z32" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="AA32" s="69" t="s">
+      <c r="AA32" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="AB32" s="69" t="s">
+      <c r="AB32" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AC32" s="69" t="s">
+      <c r="AC32" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="65" t="s">
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="AH32" s="102">
+      <c r="AH32" s="75">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="AI32" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ32" s="65" t="s">
+      <c r="AJ32" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="AK32" s="108">
+      <c r="AK32" s="89">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="AL32" s="112" t="s">
+      <c r="AL32" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM32" s="114" t="s">
+      <c r="AM32" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="AN32" s="116" t="s">
+      <c r="AN32" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="AO32" s="116" t="s">
+      <c r="AO32" s="81" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="101"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="83"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="94"/>
       <c r="L33" s="37"/>
       <c r="M33" s="50" t="s">
         <v>342</v>
@@ -7479,75 +7491,75 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="O33" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="P33" s="55">
+      <c r="O33" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="P33" s="53">
         <v>23</v>
       </c>
-      <c r="Q33" s="54" t="s">
+      <c r="Q33" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="R33" s="55">
+      <c r="R33" s="53">
         <v>34</v>
       </c>
-      <c r="S33" s="66"/>
-      <c r="T33" s="103"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="76"/>
       <c r="U33" s="37"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="70"/>
-      <c r="AC33" s="70"/>
-      <c r="AD33" s="70"/>
-      <c r="AE33" s="70"/>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="103"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="76"/>
       <c r="AI33" s="37"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="109"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="115"/>
-      <c r="AN33" s="117"/>
-      <c r="AO33" s="117"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="90"/>
+      <c r="AL33" s="86"/>
+      <c r="AM33" s="84"/>
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
     </row>
     <row r="34" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="100">
+      <c r="A34" s="95">
         <v>17</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="80" t="s">
+      <c r="H34" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="I34" s="82">
+      <c r="I34" s="93">
         <f t="shared" ref="I34" si="29">LEN(H34)</f>
         <v>34</v>
       </c>
-      <c r="J34" s="74" t="s">
+      <c r="J34" s="109" t="s">
         <v>326</v>
       </c>
-      <c r="K34" s="82">
+      <c r="K34" s="93">
         <f t="shared" ref="K34" si="30">LEN(J34)</f>
         <v>75</v>
       </c>
@@ -7561,98 +7573,98 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O34" s="54" t="s">
+      <c r="O34" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="P34" s="53">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="R34" s="53">
+        <v>6</v>
+      </c>
+      <c r="S34" s="79" t="s">
         <v>396</v>
       </c>
-      <c r="P34" s="55">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="R34" s="55">
-        <v>6</v>
-      </c>
-      <c r="S34" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="T34" s="102">
+      <c r="T34" s="75">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="U34" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V34" s="65" t="s">
-        <v>419</v>
-      </c>
-      <c r="W34" s="102">
+      <c r="V34" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="W34" s="75">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="X34" s="69">
+      <c r="X34" s="77">
         <v>5</v>
       </c>
-      <c r="Y34" s="69" t="s">
+      <c r="Y34" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="Z34" s="69" t="s">
+      <c r="Z34" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="AA34" s="69" t="s">
+      <c r="AA34" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="AB34" s="69" t="s">
+      <c r="AB34" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="AC34" s="69" t="s">
+      <c r="AC34" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="65" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH34" s="102">
+      <c r="AD34" s="77"/>
+      <c r="AE34" s="77"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="79" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH34" s="75">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="AI34" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ34" s="65" t="s">
+      <c r="AJ34" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="AK34" s="108">
+      <c r="AK34" s="89">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="AL34" s="112" t="s">
+      <c r="AL34" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM34" s="114" t="s">
+      <c r="AM34" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AN34" s="116" t="s">
+      <c r="AN34" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="AO34" s="116" t="s">
+      <c r="AO34" s="81" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="101"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="83"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="94"/>
       <c r="L35" s="37"/>
       <c r="M35" s="50" t="s">
         <v>344</v>
@@ -7661,75 +7673,75 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="O35" s="54" t="s">
+      <c r="O35" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="P35" s="53">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="P35" s="55">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="R35" s="55">
+      <c r="R35" s="53">
         <v>18</v>
       </c>
-      <c r="S35" s="66"/>
-      <c r="T35" s="103"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="76"/>
       <c r="U35" s="37"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="70"/>
-      <c r="Z35" s="70"/>
-      <c r="AA35" s="70"/>
-      <c r="AB35" s="70"/>
-      <c r="AC35" s="70"/>
-      <c r="AD35" s="70"/>
-      <c r="AE35" s="70"/>
-      <c r="AF35" s="70"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="103"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="78"/>
+      <c r="AF35" s="78"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="76"/>
       <c r="AI35" s="37"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="109"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="115"/>
-      <c r="AN35" s="117"/>
-      <c r="AO35" s="117"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="90"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="84"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
     </row>
     <row r="36" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="100">
+      <c r="A36" s="95">
         <v>18</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="97" t="s">
         <v>327</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="94" t="s">
+      <c r="E36" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="82" t="s">
+      <c r="G36" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="H36" s="80" t="s">
+      <c r="H36" s="107" t="s">
         <v>328</v>
       </c>
-      <c r="I36" s="82">
+      <c r="I36" s="93">
         <f t="shared" ref="I36" si="31">LEN(H36)</f>
         <v>31</v>
       </c>
-      <c r="J36" s="74" t="s">
+      <c r="J36" s="109" t="s">
         <v>329</v>
       </c>
-      <c r="K36" s="82">
+      <c r="K36" s="93">
         <f t="shared" ref="K36" si="32">LEN(J36)</f>
         <v>101</v>
       </c>
@@ -7743,98 +7755,98 @@
         <f>LEN(M36)</f>
         <v>7</v>
       </c>
-      <c r="O36" s="54" t="s">
+      <c r="O36" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="P36" s="55">
+      <c r="P36" s="53">
         <v>8</v>
       </c>
-      <c r="Q36" s="54" t="s">
+      <c r="Q36" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="R36" s="55">
+      <c r="R36" s="53">
         <v>6</v>
       </c>
-      <c r="S36" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="T36" s="102">
+      <c r="S36" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="T36" s="75">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="U36" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V36" s="65" t="s">
-        <v>420</v>
-      </c>
-      <c r="W36" s="102">
+      <c r="V36" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="W36" s="75">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="X36" s="69">
+      <c r="X36" s="77">
         <v>5</v>
       </c>
-      <c r="Y36" s="69" t="s">
+      <c r="Y36" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="Z36" s="69" t="s">
+      <c r="Z36" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="AA36" s="69" t="s">
+      <c r="AA36" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AB36" s="69" t="s">
+      <c r="AB36" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="AC36" s="69" t="s">
+      <c r="AC36" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="65" t="s">
+      <c r="AD36" s="77"/>
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="77"/>
+      <c r="AG36" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="AH36" s="102">
+      <c r="AH36" s="75">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="AI36" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ36" s="65" t="s">
-        <v>458</v>
-      </c>
-      <c r="AK36" s="108">
+      <c r="AJ36" s="79" t="s">
+        <v>456</v>
+      </c>
+      <c r="AK36" s="89">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="AL36" s="112" t="s">
+      <c r="AL36" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AM36" s="114" t="s">
+      <c r="AM36" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AN36" s="116" t="s">
+      <c r="AN36" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="AO36" s="116" t="s">
+      <c r="AO36" s="81" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="101"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="83"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="94"/>
       <c r="L37" s="37"/>
       <c r="M37" s="50" t="s">
         <v>345</v>
@@ -7843,75 +7855,75 @@
         <f>LEN(M37)</f>
         <v>33</v>
       </c>
-      <c r="O37" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="P37" s="55">
+      <c r="O37" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="P37" s="53">
         <v>35</v>
       </c>
-      <c r="Q37" s="54" t="s">
+      <c r="Q37" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="R37" s="55">
+      <c r="R37" s="53">
         <v>26</v>
       </c>
-      <c r="S37" s="66"/>
-      <c r="T37" s="103"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="76"/>
       <c r="U37" s="37"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="70"/>
-      <c r="Z37" s="70"/>
-      <c r="AA37" s="70"/>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="70"/>
-      <c r="AD37" s="70"/>
-      <c r="AE37" s="70"/>
-      <c r="AF37" s="70"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="103"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="78"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="78"/>
+      <c r="AE37" s="78"/>
+      <c r="AF37" s="78"/>
+      <c r="AG37" s="80"/>
+      <c r="AH37" s="76"/>
       <c r="AI37" s="37"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="109"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="115"/>
-      <c r="AN37" s="117"/>
-      <c r="AO37" s="117"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="90"/>
+      <c r="AL37" s="86"/>
+      <c r="AM37" s="84"/>
+      <c r="AN37" s="82"/>
+      <c r="AO37" s="82"/>
     </row>
     <row r="38" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="100">
+      <c r="A38" s="95">
         <v>19</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="97" t="s">
         <v>330</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="D38" s="99" t="s">
         <v>331</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="F38" s="92" t="s">
+      <c r="F38" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="82" t="s">
+      <c r="G38" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="107" t="s">
         <v>332</v>
       </c>
-      <c r="I38" s="82">
+      <c r="I38" s="93">
         <f t="shared" ref="I38" si="33">LEN(H38)</f>
         <v>30</v>
       </c>
-      <c r="J38" s="74" t="s">
+      <c r="J38" s="109" t="s">
         <v>333</v>
       </c>
-      <c r="K38" s="82">
+      <c r="K38" s="93">
         <f t="shared" ref="K38" si="34">LEN(J38)</f>
         <v>104</v>
       </c>
@@ -7925,100 +7937,100 @@
         <f>LEN(M38)</f>
         <v>5</v>
       </c>
-      <c r="O38" s="54" t="s">
+      <c r="O38" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="P38" s="55">
+      <c r="P38" s="53">
         <v>8</v>
       </c>
-      <c r="Q38" s="54" t="s">
+      <c r="Q38" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="R38" s="55">
+      <c r="R38" s="53">
         <v>7</v>
       </c>
-      <c r="S38" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="T38" s="102">
+      <c r="S38" s="79" t="s">
+        <v>401</v>
+      </c>
+      <c r="T38" s="75">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="U38" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V38" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="W38" s="102">
+      <c r="V38" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="W38" s="75">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="X38" s="69">
+      <c r="X38" s="77">
         <v>6</v>
       </c>
-      <c r="Y38" s="69" t="s">
+      <c r="Y38" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="Z38" s="69" t="s">
+      <c r="Z38" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AA38" s="69" t="s">
+      <c r="AA38" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="AB38" s="69" t="s">
+      <c r="AB38" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="AC38" s="69" t="s">
+      <c r="AC38" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AD38" s="69" t="s">
+      <c r="AD38" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="AE38" s="69"/>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH38" s="102">
+      <c r="AE38" s="77"/>
+      <c r="AF38" s="77"/>
+      <c r="AG38" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH38" s="75">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="AI38" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ38" s="65" t="s">
-        <v>459</v>
-      </c>
-      <c r="AK38" s="108">
+      <c r="AJ38" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK38" s="89">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="AL38" s="110" t="s">
+      <c r="AL38" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="AM38" s="114" t="s">
+      <c r="AM38" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="AN38" s="116" t="s">
+      <c r="AN38" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="AO38" s="116" t="s">
+      <c r="AO38" s="81" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="101"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="83"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="37"/>
       <c r="M39" s="50" t="s">
         <v>230</v>
@@ -8027,41 +8039,41 @@
         <f>LEN(M39)</f>
         <v>32</v>
       </c>
-      <c r="O39" s="54" t="s">
+      <c r="O39" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="P39" s="53">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="P39" s="55">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="54" t="s">
-        <v>404</v>
-      </c>
-      <c r="R39" s="55">
+      <c r="R39" s="53">
         <v>23</v>
       </c>
-      <c r="S39" s="66"/>
-      <c r="T39" s="103"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="76"/>
       <c r="U39" s="37"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="70"/>
-      <c r="AD39" s="70"/>
-      <c r="AE39" s="70"/>
-      <c r="AF39" s="70"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="103"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="76"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="78"/>
+      <c r="AC39" s="78"/>
+      <c r="AD39" s="78"/>
+      <c r="AE39" s="78"/>
+      <c r="AF39" s="78"/>
+      <c r="AG39" s="80"/>
+      <c r="AH39" s="76"/>
       <c r="AI39" s="37"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="109"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="115"/>
-      <c r="AN39" s="117"/>
-      <c r="AO39" s="117"/>
+      <c r="AJ39" s="80"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="84"/>
+      <c r="AN39" s="82"/>
+      <c r="AO39" s="82"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A40" s="31"/>
@@ -8087,19 +8099,19 @@
       <c r="U40" s="36"/>
       <c r="V40" s="31"/>
       <c r="W40" s="42"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
       <c r="AG40" s="31"/>
       <c r="AH40" s="42"/>
       <c r="AI40" s="36"/>
-      <c r="AJ40" s="64"/>
+      <c r="AJ40" s="62"/>
       <c r="AK40" s="42"/>
       <c r="AL40" s="30"/>
       <c r="AM40" s="32"/>
@@ -8110,26 +8122,26 @@
       <c r="A41" s="34"/>
       <c r="B41" s="16"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="118"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="34"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="122"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="69"/>
       <c r="L41" s="37"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="122"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="69"/>
       <c r="U41" s="37"/>
-      <c r="V41" s="121"/>
-      <c r="W41" s="122"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="69"/>
       <c r="X41" s="38"/>
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
@@ -8139,38 +8151,38 @@
       <c r="AD41" s="37"/>
       <c r="AE41" s="37"/>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="121"/>
-      <c r="AH41" s="122"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="69"/>
       <c r="AI41" s="37"/>
-      <c r="AJ41" s="121" t="s">
+      <c r="AJ41" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="AK41" s="122"/>
+      <c r="AK41" s="69"/>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A42" s="34"/>
       <c r="B42" s="16"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="119"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="34"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="123"/>
-      <c r="K42" s="124"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="71"/>
       <c r="L42" s="37"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="127"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="123"/>
-      <c r="T42" s="124"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="71"/>
       <c r="U42" s="37"/>
-      <c r="V42" s="123"/>
-      <c r="W42" s="124"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="71"/>
       <c r="X42" s="38"/>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
@@ -8180,36 +8192,36 @@
       <c r="AD42" s="37"/>
       <c r="AE42" s="37"/>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="123"/>
-      <c r="AH42" s="124"/>
+      <c r="AG42" s="70"/>
+      <c r="AH42" s="71"/>
       <c r="AI42" s="37"/>
-      <c r="AJ42" s="123"/>
-      <c r="AK42" s="124"/>
+      <c r="AJ42" s="70"/>
+      <c r="AK42" s="71"/>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A43" s="34"/>
       <c r="B43" s="16"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="119"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="34"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="124"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="71"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="127"/>
-      <c r="N43" s="127"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="127"/>
-      <c r="Q43" s="127"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="124"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="71"/>
       <c r="U43" s="37"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="124"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="71"/>
       <c r="X43" s="38"/>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
@@ -8219,36 +8231,36 @@
       <c r="AD43" s="37"/>
       <c r="AE43" s="37"/>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="123"/>
-      <c r="AH43" s="124"/>
+      <c r="AG43" s="70"/>
+      <c r="AH43" s="71"/>
       <c r="AI43" s="37"/>
-      <c r="AJ43" s="123"/>
-      <c r="AK43" s="124"/>
+      <c r="AJ43" s="70"/>
+      <c r="AK43" s="71"/>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A44" s="34"/>
       <c r="B44" s="16"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="119"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="34"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="124"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="71"/>
       <c r="L44" s="37"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="127"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="124"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="71"/>
       <c r="U44" s="37"/>
-      <c r="V44" s="123"/>
-      <c r="W44" s="124"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="71"/>
       <c r="X44" s="38"/>
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
@@ -8258,36 +8270,36 @@
       <c r="AD44" s="37"/>
       <c r="AE44" s="37"/>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="123"/>
-      <c r="AH44" s="124"/>
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="71"/>
       <c r="AI44" s="37"/>
-      <c r="AJ44" s="123"/>
-      <c r="AK44" s="124"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="71"/>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A45" s="34"/>
       <c r="B45" s="16"/>
       <c r="C45" s="35"/>
-      <c r="D45" s="120"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="34"/>
       <c r="F45" s="35"/>
       <c r="G45" s="34"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="126"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="73"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="127"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="127"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="126"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="73"/>
       <c r="U45" s="37"/>
-      <c r="V45" s="125"/>
-      <c r="W45" s="126"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="73"/>
       <c r="X45" s="38"/>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
@@ -8297,11 +8309,11 @@
       <c r="AD45" s="37"/>
       <c r="AE45" s="37"/>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="125"/>
-      <c r="AH45" s="126"/>
+      <c r="AG45" s="72"/>
+      <c r="AH45" s="73"/>
       <c r="AI45" s="37"/>
-      <c r="AJ45" s="125"/>
-      <c r="AK45" s="126"/>
+      <c r="AJ45" s="72"/>
+      <c r="AK45" s="73"/>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.4">
       <c r="AG47" s="33"/>
@@ -8316,202 +8328,345 @@
     </row>
   </sheetData>
   <mergeCells count="617">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="S41:T45"/>
-    <mergeCell ref="V41:W45"/>
-    <mergeCell ref="AG41:AH45"/>
-    <mergeCell ref="AJ41:AK45"/>
-    <mergeCell ref="M41:R45"/>
-    <mergeCell ref="J41:K45"/>
-    <mergeCell ref="H41:I45"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AO20:AO21"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AN24:AN25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AN34:AN35"/>
-    <mergeCell ref="AN32:AN33"/>
-    <mergeCell ref="AO32:AO33"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AM38:AM39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AN38:AN39"/>
-    <mergeCell ref="AN36:AN37"/>
-    <mergeCell ref="AO36:AO37"/>
-    <mergeCell ref="AM26:AM27"/>
-    <mergeCell ref="AM28:AM29"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AM32:AM33"/>
-    <mergeCell ref="AM34:AM35"/>
-    <mergeCell ref="AN28:AN29"/>
-    <mergeCell ref="AO28:AO29"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AN26:AN27"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AM22:AM23"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AL28:AL29"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AL38:AL39"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AH36:AH37"/>
-    <mergeCell ref="AH38:AH39"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
     <mergeCell ref="S28:S29"/>
     <mergeCell ref="S26:S27"/>
     <mergeCell ref="S24:S25"/>
@@ -8536,286 +8691,64 @@
     <mergeCell ref="T28:T29"/>
     <mergeCell ref="T30:T31"/>
     <mergeCell ref="T12:T13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
     <mergeCell ref="AE36:AE37"/>
     <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="Y22:Y23"/>
     <mergeCell ref="AF14:AF15"/>
     <mergeCell ref="AF16:AF17"/>
     <mergeCell ref="AE24:AE25"/>
     <mergeCell ref="AF24:AF25"/>
     <mergeCell ref="AE26:AE27"/>
     <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="Y22:Y23"/>
     <mergeCell ref="AA24:AA25"/>
     <mergeCell ref="AB24:AB25"/>
     <mergeCell ref="AC24:AC25"/>
@@ -8825,12 +8758,121 @@
     <mergeCell ref="AA22:AA23"/>
     <mergeCell ref="AD22:AD23"/>
     <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AM38:AM39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AN38:AN39"/>
+    <mergeCell ref="AN36:AN37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="AM26:AM27"/>
+    <mergeCell ref="AM28:AM29"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AM32:AM33"/>
+    <mergeCell ref="AM34:AM35"/>
+    <mergeCell ref="AN28:AN29"/>
+    <mergeCell ref="AO28:AO29"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AN26:AN27"/>
+    <mergeCell ref="AN24:AN25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AN32:AN33"/>
+    <mergeCell ref="AO32:AO33"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AF12:AF13"/>
     <mergeCell ref="X14:X15"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
     <mergeCell ref="AC16:AC17"/>
     <mergeCell ref="AD16:AD17"/>
     <mergeCell ref="AC14:AC15"/>
@@ -8841,98 +8883,68 @@
     <mergeCell ref="Z16:Z17"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="AA18:AA19"/>
     <mergeCell ref="Z18:Z19"/>
     <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="X18:X19"/>
-    <mergeCell ref="AD14:AD15"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="S41:T45"/>
+    <mergeCell ref="V41:W45"/>
+    <mergeCell ref="AG41:AH45"/>
+    <mergeCell ref="AJ41:AK45"/>
+    <mergeCell ref="M41:R45"/>
+    <mergeCell ref="J41:K45"/>
+    <mergeCell ref="H41:I45"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.82677165354330717" right="0.23622047244094491" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10902,6 +10914,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010015E05B0B3D1590489A7FB44CD44BEF6D" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d41757872260ba9d064883ae228e85d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69cbc9ba-3c12-4daf-978e-8ee90c2cacd1" xmlns:ns3="b2fda891-4f5d-4326-9f77-b26407c0a029" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd2fa029cefe4a8f0e3531b4f4c17d67" ns2:_="" ns3:_="">
     <xsd:import namespace="69cbc9ba-3c12-4daf-978e-8ee90c2cacd1"/>
@@ -11066,22 +11093,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AB8EAF-D3FD-401A-B6AD-C696CE332B43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D228D9-9B1C-4D13-AA85-65499C0A92D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0399F32D-FADF-4DD8-9D81-68DACD98F8C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11098,21 +11127,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D228D9-9B1C-4D13-AA85-65499C0A92D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AB8EAF-D3FD-401A-B6AD-C696CE332B43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/convert/origin/data.xlsx
+++ b/convert/origin/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\日立造船\提出\登録用素材01119\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dai/projects/2021/across/georama_ar/convert/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51225DC4-D756-4EEA-8399-05894F7C00B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B519C9-4939-6349-8EFC-30DBA5024285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="885" windowWidth="16455" windowHeight="13710" tabRatio="586" xr2:uid="{19524DF3-9E90-48CC-9147-1C7B375E8DD4}"/>
+    <workbookView xWindow="560" yWindow="880" windowWidth="16460" windowHeight="13720" tabRatio="586" xr2:uid="{19524DF3-9E90-48CC-9147-1C7B375E8DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="モニター文記入一覧1203" sheetId="26" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="WindowOffset">[2]calcs!$D$26</definedName>
     <definedName name="タイトル1">[1]!アクティビティ[[#Headers],[活動]]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3269,7 +3272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3841,12 +3844,177 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3876,171 +4044,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4433,53 +4436,52 @@
   <dimension ref="A1:AQ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="85.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="123.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="27.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="50.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="9" customWidth="1"/>
-    <col min="10" max="10" width="182.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="9" customWidth="1"/>
-    <col min="12" max="12" width="33.25" style="8" customWidth="1"/>
-    <col min="13" max="13" width="40.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="9" customWidth="1"/>
-    <col min="15" max="15" width="40.75" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.75" style="9" customWidth="1"/>
-    <col min="17" max="17" width="40.75" style="5" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="9" customWidth="1"/>
-    <col min="19" max="19" width="80.75" style="5" customWidth="1"/>
-    <col min="20" max="20" width="5.75" style="9" customWidth="1"/>
-    <col min="21" max="21" width="22.875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="129.875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="4.75" style="9" customWidth="1"/>
-    <col min="24" max="24" width="3.75" style="9" customWidth="1"/>
-    <col min="25" max="32" width="11.75" style="8" customWidth="1"/>
-    <col min="33" max="33" width="90.75" style="5" customWidth="1"/>
-    <col min="34" max="34" width="5.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="182.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="40.6640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="80.6640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="129.83203125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="9" customWidth="1"/>
+    <col min="25" max="32" width="11.6640625" style="8" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" style="5" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" style="9" customWidth="1"/>
     <col min="35" max="35" width="25.5" style="8" customWidth="1"/>
-    <col min="36" max="36" width="101.75" style="5" customWidth="1"/>
-    <col min="37" max="37" width="5.75" style="9" customWidth="1"/>
-    <col min="38" max="38" width="14.875" style="8" customWidth="1"/>
-    <col min="39" max="39" width="11.25" style="5" customWidth="1"/>
+    <col min="36" max="36" width="101.6640625" style="5" customWidth="1"/>
+    <col min="37" max="37" width="5.6640625" style="9" customWidth="1"/>
+    <col min="38" max="38" width="14.83203125" style="8" customWidth="1"/>
+    <col min="39" max="39" width="11.1640625" style="5" customWidth="1"/>
     <col min="40" max="40" width="31.5" style="5" customWidth="1"/>
-    <col min="41" max="41" width="25.625" style="5" customWidth="1"/>
-    <col min="42" max="42" width="25.75" style="5" customWidth="1"/>
-    <col min="43" max="16384" width="25.75" style="5"/>
+    <col min="41" max="42" width="25.6640625" style="5" customWidth="1"/>
+    <col min="43" max="16384" width="25.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4549,16 +4551,16 @@
       <c r="W1" s="39">
         <v>130</v>
       </c>
-      <c r="X1" s="119" t="s">
+      <c r="X1" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="121"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
       <c r="AF1" s="58"/>
       <c r="AG1" s="60" t="s">
         <v>14</v>
@@ -4591,39 +4593,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="95">
+    <row r="2" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="102">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="88" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="93">
+      <c r="I2" s="90">
         <f t="shared" ref="I2:I4" si="0">LEN(H2)</f>
         <v>15</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="K2" s="93">
+      <c r="K2" s="90">
         <f t="shared" ref="K2:K4" si="1">LEN(J2)</f>
         <v>91</v>
       </c>
@@ -4649,86 +4651,86 @@
       <c r="R2" s="53">
         <v>4</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="104">
         <f t="shared" ref="T2:T38" si="3">LEN(S2)</f>
         <v>80</v>
       </c>
       <c r="U2" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="V2" s="91" t="s">
+      <c r="V2" s="74" t="s">
         <v>460</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="104">
         <f t="shared" ref="W2:W38" si="4">LEN(V2)</f>
         <v>69</v>
       </c>
-      <c r="X2" s="77">
+      <c r="X2" s="69">
         <v>5</v>
       </c>
-      <c r="Y2" s="77" t="s">
+      <c r="Y2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="77" t="s">
+      <c r="Z2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="77" t="s">
+      <c r="AA2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="77" t="s">
+      <c r="AB2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="77" t="s">
+      <c r="AC2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="79" t="s">
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="65" t="s">
         <v>427</v>
       </c>
-      <c r="AH2" s="75">
+      <c r="AH2" s="104">
         <f t="shared" ref="AH2:AH38" si="5">LEN(AG2)</f>
         <v>133</v>
       </c>
       <c r="AI2" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ2" s="79" t="s">
+      <c r="AJ2" s="65" t="s">
         <v>443</v>
       </c>
-      <c r="AK2" s="89">
+      <c r="AK2" s="110">
         <f t="shared" ref="AK2:AK38" si="6">LEN(AJ2)</f>
         <v>57</v>
       </c>
-      <c r="AL2" s="85" t="s">
+      <c r="AL2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="83" t="s">
+      <c r="AM2" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="81" t="s">
+      <c r="AN2" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="AO2" s="81" t="s">
+      <c r="AO2" s="118" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="94"/>
+    <row r="3" spans="1:43" s="22" customFormat="1" ht="38">
+      <c r="A3" s="103"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="91"/>
       <c r="L3" s="37"/>
       <c r="M3" s="50" t="s">
         <v>346</v>
@@ -4749,63 +4751,63 @@
       <c r="R3" s="53">
         <v>21</v>
       </c>
-      <c r="S3" s="80"/>
-      <c r="T3" s="76"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="105"/>
       <c r="U3" s="37"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="76"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="105"/>
       <c r="AI3" s="37"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
     </row>
-    <row r="4" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="95">
+    <row r="4" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="102">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="96" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="90">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="K4" s="93">
+      <c r="K4" s="90">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
@@ -4831,82 +4833,82 @@
       <c r="R4" s="53">
         <v>10</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="75">
+      <c r="T4" s="104">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="U4" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="75">
+      <c r="W4" s="104">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="X4" s="77">
+      <c r="X4" s="69">
         <v>3</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="77" t="s">
+      <c r="Z4" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="77" t="s">
+      <c r="AA4" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="79" t="s">
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="AH4" s="75">
+      <c r="AH4" s="104">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="AI4" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ4" s="79" t="s">
+      <c r="AJ4" s="65" t="s">
         <v>444</v>
       </c>
-      <c r="AK4" s="89">
+      <c r="AK4" s="110">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="AL4" s="85" t="s">
+      <c r="AL4" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="83" t="s">
+      <c r="AM4" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="81" t="s">
+      <c r="AN4" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="AO4" s="81" t="s">
+      <c r="AO4" s="118" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="96"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="94"/>
+    <row r="5" spans="1:43" s="22" customFormat="1" ht="38">
+      <c r="A5" s="103"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="91"/>
       <c r="L5" s="37"/>
       <c r="M5" s="50" t="s">
         <v>49</v>
@@ -4921,69 +4923,69 @@
       <c r="P5" s="53">
         <v>32</v>
       </c>
-      <c r="Q5" s="126" t="s">
+      <c r="Q5" s="63" t="s">
         <v>360</v>
       </c>
       <c r="R5" s="53">
         <v>38</v>
       </c>
-      <c r="S5" s="80"/>
-      <c r="T5" s="76"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="105"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="76"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="105"/>
       <c r="AI5" s="37"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
     </row>
-    <row r="6" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="95">
+    <row r="6" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="102">
         <v>3</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="93">
+      <c r="I6" s="90">
         <f>LEN(H6)</f>
         <v>26</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="90">
         <f>LEN(J6)</f>
         <v>84</v>
       </c>
@@ -5009,90 +5011,90 @@
       <c r="R6" s="53">
         <v>6</v>
       </c>
-      <c r="S6" s="122" t="s">
+      <c r="S6" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="T6" s="75">
+      <c r="T6" s="104">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="U6" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="W6" s="75">
+      <c r="W6" s="104">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="X6" s="77">
+      <c r="X6" s="69">
         <v>6</v>
       </c>
-      <c r="Y6" s="77" t="s">
+      <c r="Y6" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="Z6" s="77" t="s">
+      <c r="Z6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="77" t="s">
+      <c r="AA6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="77" t="s">
+      <c r="AB6" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="AC6" s="77" t="s">
+      <c r="AC6" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="AD6" s="77" t="s">
+      <c r="AD6" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="79" t="s">
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="65" t="s">
         <v>429</v>
       </c>
-      <c r="AH6" s="75">
+      <c r="AH6" s="104">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="AI6" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ6" s="122" t="s">
+      <c r="AJ6" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="AK6" s="89">
+      <c r="AK6" s="110">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="AL6" s="85" t="s">
+      <c r="AL6" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="83" t="s">
+      <c r="AM6" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="AN6" s="81" t="s">
+      <c r="AN6" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="AO6" s="81" t="s">
+      <c r="AO6" s="118" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="96"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="94"/>
+    <row r="7" spans="1:43" s="22" customFormat="1" ht="38">
+      <c r="A7" s="103"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="126" t="s">
+      <c r="M7" s="63" t="s">
         <v>348</v>
       </c>
       <c r="N7" s="37">
@@ -5111,63 +5113,63 @@
       <c r="R7" s="53">
         <v>28</v>
       </c>
-      <c r="S7" s="123"/>
-      <c r="T7" s="76"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="105"/>
       <c r="U7" s="37"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="76"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="105"/>
       <c r="AI7" s="37"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="82"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="113"/>
+      <c r="AM7" s="117"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
     </row>
-    <row r="8" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="95">
+    <row r="8" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="102">
         <v>4</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="94" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="96" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="93">
+      <c r="I8" s="90">
         <f>LEN(H8)</f>
         <v>31</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="90">
         <f>LEN(J8)</f>
         <v>106</v>
       </c>
@@ -5193,90 +5195,90 @@
       <c r="R8" s="53">
         <v>10</v>
       </c>
-      <c r="S8" s="79" t="s">
+      <c r="S8" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="T8" s="75">
+      <c r="T8" s="104">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="U8" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="V8" s="79" t="s">
+      <c r="V8" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="W8" s="75">
+      <c r="W8" s="104">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="X8" s="77">
+      <c r="X8" s="69">
         <v>7</v>
       </c>
-      <c r="Y8" s="77" t="s">
+      <c r="Y8" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="Z8" s="77" t="s">
+      <c r="Z8" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="77" t="s">
+      <c r="AA8" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AB8" s="77" t="s">
+      <c r="AB8" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="77" t="s">
+      <c r="AC8" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="AD8" s="77" t="s">
+      <c r="AD8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AE8" s="77" t="s">
+      <c r="AE8" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="79" t="s">
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="AH8" s="75">
+      <c r="AH8" s="104">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="AI8" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ8" s="79" t="s">
+      <c r="AJ8" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="AK8" s="89">
+      <c r="AK8" s="110">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="AL8" s="85" t="s">
+      <c r="AL8" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AM8" s="83" t="s">
+      <c r="AM8" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="AN8" s="81" t="s">
+      <c r="AN8" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="AO8" s="81" t="s">
+      <c r="AO8" s="118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="22" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="96"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="94"/>
+    <row r="9" spans="1:43" s="22" customFormat="1" ht="38">
+      <c r="A9" s="103"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="91"/>
       <c r="L9" s="37"/>
       <c r="M9" s="50" t="s">
         <v>349</v>
@@ -5297,63 +5299,63 @@
       <c r="R9" s="53">
         <v>35</v>
       </c>
-      <c r="S9" s="80"/>
-      <c r="T9" s="76"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="105"/>
       <c r="U9" s="37"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="76"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="105"/>
       <c r="AI9" s="37"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="119"/>
+      <c r="AO9" s="119"/>
     </row>
-    <row r="10" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="95">
+    <row r="10" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="102">
         <v>5</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="90">
         <f>LEN(H10)</f>
         <v>32</v>
       </c>
-      <c r="J10" s="109" t="s">
+      <c r="J10" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="K10" s="93">
+      <c r="K10" s="90">
         <f>LEN(J10)</f>
         <v>73</v>
       </c>
@@ -5379,88 +5381,88 @@
       <c r="R10" s="53">
         <v>3</v>
       </c>
-      <c r="S10" s="79" t="s">
+      <c r="S10" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="75">
+      <c r="T10" s="104">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="U10" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="V10" s="79" t="s">
+      <c r="V10" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="W10" s="75">
+      <c r="W10" s="104">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="X10" s="77">
+      <c r="X10" s="69">
         <v>6</v>
       </c>
-      <c r="Y10" s="77" t="s">
+      <c r="Y10" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="Z10" s="77" t="s">
+      <c r="Z10" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="77" t="s">
+      <c r="AA10" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="AB10" s="77" t="s">
+      <c r="AB10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AC10" s="77" t="s">
+      <c r="AC10" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" s="77" t="s">
+      <c r="AD10" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="79" t="s">
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="AH10" s="75">
+      <c r="AH10" s="104">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="AI10" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ10" s="79" t="s">
+      <c r="AJ10" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="AK10" s="89">
+      <c r="AK10" s="110">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="AL10" s="85" t="s">
+      <c r="AL10" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM10" s="83" t="s">
+      <c r="AM10" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="AN10" s="81" t="s">
+      <c r="AN10" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="AO10" s="81" t="s">
+      <c r="AO10" s="118" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="96"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="94"/>
+    <row r="11" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="91"/>
       <c r="L11" s="37"/>
       <c r="M11" s="50" t="s">
         <v>350</v>
@@ -5481,63 +5483,63 @@
       <c r="R11" s="53">
         <v>23</v>
       </c>
-      <c r="S11" s="80"/>
-      <c r="T11" s="76"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="105"/>
       <c r="U11" s="37"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="80"/>
-      <c r="AH11" s="76"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="105"/>
       <c r="AI11" s="37"/>
-      <c r="AJ11" s="80"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="119"/>
+      <c r="AO11" s="119"/>
     </row>
-    <row r="12" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="95">
+    <row r="12" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="102">
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="113" t="s">
+      <c r="G12" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="90">
         <f t="shared" ref="I12" si="7">LEN(H12)</f>
         <v>29</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="90">
         <f t="shared" ref="K12" si="8">LEN(J12)</f>
         <v>106</v>
       </c>
@@ -5563,88 +5565,88 @@
       <c r="R12" s="53">
         <v>3</v>
       </c>
-      <c r="S12" s="122" t="s">
+      <c r="S12" s="67" t="s">
         <v>368</v>
       </c>
-      <c r="T12" s="75">
+      <c r="T12" s="104">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="U12" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V12" s="122" t="s">
+      <c r="V12" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="W12" s="75">
+      <c r="W12" s="104">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="X12" s="77">
+      <c r="X12" s="69">
         <v>6</v>
       </c>
-      <c r="Y12" s="77" t="s">
+      <c r="Y12" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="Z12" s="77" t="s">
+      <c r="Z12" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="AA12" s="77" t="s">
+      <c r="AA12" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" s="77" t="s">
+      <c r="AB12" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AC12" s="77" t="s">
+      <c r="AC12" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="77" t="s">
+      <c r="AD12" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="79" t="s">
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="65" t="s">
         <v>432</v>
       </c>
-      <c r="AH12" s="75">
+      <c r="AH12" s="104">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="AI12" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ12" s="79" t="s">
+      <c r="AJ12" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="AK12" s="89">
+      <c r="AK12" s="110">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="AL12" s="85" t="s">
+      <c r="AL12" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM12" s="83" t="s">
+      <c r="AM12" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="AN12" s="81" t="s">
+      <c r="AN12" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="AO12" s="81" t="s">
+      <c r="AO12" s="118" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="96"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="94"/>
+    <row r="13" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="91"/>
       <c r="L13" s="37"/>
       <c r="M13" s="50" t="s">
         <v>351</v>
@@ -5653,7 +5655,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="O13" s="126" t="s">
+      <c r="O13" s="63" t="s">
         <v>369</v>
       </c>
       <c r="P13" s="53">
@@ -5665,63 +5667,63 @@
       <c r="R13" s="53">
         <v>21</v>
       </c>
-      <c r="S13" s="123"/>
-      <c r="T13" s="76"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="105"/>
       <c r="U13" s="37"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="76"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="105"/>
       <c r="AI13" s="37"/>
-      <c r="AJ13" s="80"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="119"/>
+      <c r="AO13" s="119"/>
     </row>
-    <row r="14" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="95">
+    <row r="14" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="102">
         <v>7</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="93">
+      <c r="I14" s="90">
         <f t="shared" ref="I14" si="9">LEN(H14)</f>
         <v>35</v>
       </c>
-      <c r="J14" s="109" t="s">
+      <c r="J14" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="93">
+      <c r="K14" s="90">
         <f t="shared" ref="K14" si="10">LEN(J14)</f>
         <v>104</v>
       </c>
@@ -5747,86 +5749,86 @@
       <c r="R14" s="53">
         <v>8</v>
       </c>
-      <c r="S14" s="79" t="s">
+      <c r="S14" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="T14" s="75">
+      <c r="T14" s="104">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="U14" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V14" s="79" t="s">
+      <c r="V14" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="W14" s="75">
+      <c r="W14" s="104">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="X14" s="77">
+      <c r="X14" s="69">
         <v>6</v>
       </c>
-      <c r="Y14" s="77" t="s">
+      <c r="Y14" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="77" t="s">
+      <c r="Z14" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AA14" s="77" t="s">
+      <c r="AA14" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" s="77" t="s">
+      <c r="AB14" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="AC14" s="77" t="s">
+      <c r="AC14" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="79" t="s">
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="AH14" s="75">
+      <c r="AH14" s="104">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="AI14" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ14" s="79" t="s">
+      <c r="AJ14" s="65" t="s">
         <v>448</v>
       </c>
-      <c r="AK14" s="89">
+      <c r="AK14" s="110">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="AL14" s="85" t="s">
+      <c r="AL14" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AM14" s="83" t="s">
+      <c r="AM14" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="AN14" s="81" t="s">
+      <c r="AN14" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="AO14" s="81" t="s">
+      <c r="AO14" s="118" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="96"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="94"/>
+    <row r="15" spans="1:43" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A15" s="103"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="91"/>
       <c r="L15" s="37"/>
       <c r="M15" s="50" t="s">
         <v>353</v>
@@ -5847,63 +5849,63 @@
       <c r="R15" s="53">
         <v>32</v>
       </c>
-      <c r="S15" s="80"/>
-      <c r="T15" s="76"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="105"/>
       <c r="U15" s="37"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="76"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="105"/>
       <c r="AI15" s="37"/>
-      <c r="AJ15" s="80"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="111"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="119"/>
+      <c r="AO15" s="119"/>
     </row>
-    <row r="16" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="95">
+    <row r="16" spans="1:43" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="102">
         <v>8</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="96" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="107" t="s">
+      <c r="H16" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="90">
         <f t="shared" ref="I16" si="11">LEN(H16)</f>
         <v>36</v>
       </c>
-      <c r="J16" s="109" t="s">
+      <c r="J16" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="90">
         <f t="shared" ref="K16" si="12">LEN(J16)</f>
         <v>106</v>
       </c>
@@ -5929,90 +5931,90 @@
       <c r="R16" s="53">
         <v>7</v>
       </c>
-      <c r="S16" s="79" t="s">
+      <c r="S16" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="T16" s="75">
+      <c r="T16" s="104">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="U16" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V16" s="79" t="s">
+      <c r="V16" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="W16" s="75">
+      <c r="W16" s="104">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="X16" s="77">
+      <c r="X16" s="69">
         <v>6</v>
       </c>
-      <c r="Y16" s="77" t="s">
+      <c r="Y16" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="Z16" s="77" t="s">
+      <c r="Z16" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="AA16" s="77" t="s">
+      <c r="AA16" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="AB16" s="77" t="s">
+      <c r="AB16" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="AC16" s="77" t="s">
+      <c r="AC16" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AD16" s="77" t="s">
+      <c r="AD16" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="79" t="s">
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="AH16" s="75">
+      <c r="AH16" s="104">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="AI16" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ16" s="79" t="s">
+      <c r="AJ16" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="AK16" s="89">
+      <c r="AK16" s="110">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="AL16" s="85" t="s">
+      <c r="AL16" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="AM16" s="83" t="s">
+      <c r="AM16" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="AN16" s="81" t="s">
+      <c r="AN16" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="AO16" s="81" t="s">
+      <c r="AO16" s="118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="96"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="94"/>
+    <row r="17" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A17" s="103"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="126" t="s">
+      <c r="M17" s="63" t="s">
         <v>354</v>
       </c>
       <c r="N17" s="37">
@@ -6031,70 +6033,70 @@
       <c r="R17" s="53">
         <v>33</v>
       </c>
-      <c r="S17" s="80"/>
-      <c r="T17" s="76"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="105"/>
       <c r="U17" s="37"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="80"/>
-      <c r="AH17" s="76"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="105"/>
       <c r="AI17" s="37"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="111"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="119"/>
     </row>
-    <row r="18" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="95">
+    <row r="18" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="102">
         <v>9</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="96" t="s">
         <v>295</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="93" t="s">
+      <c r="G18" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="107" t="s">
+      <c r="H18" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I18" s="90">
         <f t="shared" ref="I18" si="13">LEN(H18)</f>
         <v>23</v>
       </c>
-      <c r="J18" s="109" t="s">
+      <c r="J18" s="76" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K18" s="90">
         <f t="shared" ref="K18" si="14">LEN(J18)</f>
         <v>102</v>
       </c>
       <c r="L18" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="M18" s="126" t="s">
+      <c r="M18" s="63" t="s">
         <v>120</v>
       </c>
       <c r="N18" s="37">
@@ -6113,88 +6115,88 @@
       <c r="R18" s="53">
         <v>3</v>
       </c>
-      <c r="S18" s="79" t="s">
+      <c r="S18" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="T18" s="75">
+      <c r="T18" s="104">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="U18" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V18" s="79" t="s">
+      <c r="V18" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="W18" s="75">
+      <c r="W18" s="104">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="X18" s="77">
+      <c r="X18" s="69">
         <v>5</v>
       </c>
-      <c r="Y18" s="77" t="s">
+      <c r="Y18" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="Z18" s="77" t="s">
+      <c r="Z18" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="AA18" s="77" t="s">
+      <c r="AA18" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AB18" s="77" t="s">
+      <c r="AB18" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="AC18" s="77" t="s">
+      <c r="AC18" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="79" t="s">
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="AH18" s="75">
+      <c r="AH18" s="104">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="AI18" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ18" s="79" t="s">
+      <c r="AJ18" s="65" t="s">
         <v>450</v>
       </c>
-      <c r="AK18" s="89">
+      <c r="AK18" s="110">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="AL18" s="87" t="s">
+      <c r="AL18" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="AM18" s="83" t="s">
+      <c r="AM18" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="AN18" s="81" t="s">
+      <c r="AN18" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="AO18" s="81" t="s">
+      <c r="AO18" s="118" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="96"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="94"/>
+    <row r="19" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A19" s="103"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="91"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="126" t="s">
+      <c r="M19" s="63" t="s">
         <v>337</v>
       </c>
       <c r="N19" s="37">
@@ -6213,63 +6215,63 @@
       <c r="R19" s="53">
         <v>20</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="76"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="105"/>
       <c r="U19" s="37"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="80"/>
-      <c r="AH19" s="76"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="105"/>
       <c r="AI19" s="37"/>
-      <c r="AJ19" s="80"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="111"/>
+      <c r="AL19" s="115"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
     </row>
-    <row r="20" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="95">
+    <row r="20" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="102">
         <v>10</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="94" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="105" t="s">
+      <c r="E20" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="107" t="s">
+      <c r="H20" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="90">
         <f t="shared" ref="I20" si="15">LEN(H20)</f>
         <v>32</v>
       </c>
-      <c r="J20" s="117" t="s">
+      <c r="J20" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K20" s="90">
         <f t="shared" ref="K20" si="16">LEN(J20)</f>
         <v>98</v>
       </c>
@@ -6295,86 +6297,86 @@
       <c r="R20" s="53">
         <v>3</v>
       </c>
-      <c r="S20" s="79" t="s">
+      <c r="S20" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="T20" s="75">
+      <c r="T20" s="104">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="U20" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V20" s="79" t="s">
+      <c r="V20" s="65" t="s">
         <v>412</v>
       </c>
-      <c r="W20" s="75">
+      <c r="W20" s="104">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="X20" s="77">
+      <c r="X20" s="69">
         <v>5</v>
       </c>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="Z20" s="77" t="s">
+      <c r="Z20" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AA20" s="77" t="s">
+      <c r="AA20" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="AB20" s="77" t="s">
+      <c r="AB20" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AC20" s="77" t="s">
+      <c r="AC20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="79" t="s">
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="AH20" s="75">
+      <c r="AH20" s="104">
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="AI20" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ20" s="79" t="s">
+      <c r="AJ20" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="AK20" s="89">
+      <c r="AK20" s="110">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="AL20" s="85" t="s">
+      <c r="AL20" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM20" s="83" t="s">
+      <c r="AM20" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AN20" s="81" t="s">
+      <c r="AN20" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="AO20" s="81" t="s">
+      <c r="AO20" s="118" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="96"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="94"/>
+    <row r="21" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A21" s="103"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="91"/>
       <c r="L21" s="37"/>
       <c r="M21" s="50" t="s">
         <v>338</v>
@@ -6395,63 +6397,63 @@
       <c r="R21" s="53">
         <v>24</v>
       </c>
-      <c r="S21" s="80"/>
-      <c r="T21" s="76"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="105"/>
       <c r="U21" s="37"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="80"/>
-      <c r="AH21" s="76"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="105"/>
       <c r="AI21" s="37"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="111"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="119"/>
     </row>
-    <row r="22" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="95">
+    <row r="22" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="102">
         <v>11</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="93" t="s">
+      <c r="G22" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="107" t="s">
+      <c r="H22" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="90">
         <f t="shared" ref="I22" si="17">LEN(H22)</f>
         <v>31</v>
       </c>
-      <c r="J22" s="109" t="s">
+      <c r="J22" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="K22" s="93">
+      <c r="K22" s="90">
         <f t="shared" ref="K22" si="18">LEN(J22)</f>
         <v>93</v>
       </c>
@@ -6477,86 +6479,86 @@
       <c r="R22" s="53">
         <v>6</v>
       </c>
-      <c r="S22" s="79" t="s">
+      <c r="S22" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="T22" s="75">
+      <c r="T22" s="104">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="U22" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V22" s="79" t="s">
+      <c r="V22" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="W22" s="75">
+      <c r="W22" s="104">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="X22" s="77">
+      <c r="X22" s="69">
         <v>5</v>
       </c>
-      <c r="Y22" s="77" t="s">
+      <c r="Y22" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="Z22" s="77" t="s">
+      <c r="Z22" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="AA22" s="77" t="s">
+      <c r="AA22" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AB22" s="77" t="s">
+      <c r="AB22" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="AC22" s="77" t="s">
+      <c r="AC22" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="79" t="s">
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="AH22" s="75">
+      <c r="AH22" s="104">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="AI22" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ22" s="79" t="s">
+      <c r="AJ22" s="65" t="s">
         <v>452</v>
       </c>
-      <c r="AK22" s="89">
+      <c r="AK22" s="110">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="AL22" s="85" t="s">
+      <c r="AL22" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM22" s="83" t="s">
+      <c r="AM22" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="AN22" s="81" t="s">
+      <c r="AN22" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="AO22" s="81" t="s">
+      <c r="AO22" s="118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="96"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="94"/>
+    <row r="23" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A23" s="103"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="37"/>
       <c r="M23" s="50" t="s">
         <v>340</v>
@@ -6577,70 +6579,70 @@
       <c r="R23" s="53">
         <v>28</v>
       </c>
-      <c r="S23" s="80"/>
-      <c r="T23" s="76"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="105"/>
       <c r="U23" s="37"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="80"/>
-      <c r="AH23" s="76"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="105"/>
       <c r="AI23" s="37"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="90"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="111"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="119"/>
+      <c r="AO23" s="119"/>
     </row>
-    <row r="24" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="95">
+    <row r="24" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="102">
         <v>12</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="F24" s="111" t="s">
+      <c r="F24" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="H24" s="107" t="s">
+      <c r="H24" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="I24" s="93">
+      <c r="I24" s="90">
         <f t="shared" ref="I24" si="19">LEN(H24)</f>
         <v>33</v>
       </c>
-      <c r="J24" s="109" t="s">
+      <c r="J24" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="K24" s="93">
+      <c r="K24" s="90">
         <f t="shared" ref="K24" si="20">LEN(J24)</f>
         <v>89</v>
       </c>
       <c r="L24" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="M24" s="129" t="s">
+      <c r="M24" s="64" t="s">
         <v>462</v>
       </c>
       <c r="N24" s="37">
@@ -6659,88 +6661,88 @@
       <c r="R24" s="53">
         <v>5</v>
       </c>
-      <c r="S24" s="122" t="s">
+      <c r="S24" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="T24" s="75">
+      <c r="T24" s="104">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="U24" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V24" s="79" t="s">
+      <c r="V24" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="W24" s="75">
+      <c r="W24" s="104">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="X24" s="77">
+      <c r="X24" s="69">
         <v>6</v>
       </c>
-      <c r="Y24" s="77" t="s">
+      <c r="Y24" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="Z24" s="77" t="s">
+      <c r="Z24" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AA24" s="77" t="s">
+      <c r="AA24" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="AB24" s="77" t="s">
+      <c r="AB24" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AC24" s="77" t="s">
+      <c r="AC24" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AD24" s="77" t="s">
+      <c r="AD24" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="79" t="s">
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="AH24" s="75">
+      <c r="AH24" s="104">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="AI24" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ24" s="79" t="s">
+      <c r="AJ24" s="65" t="s">
         <v>453</v>
       </c>
-      <c r="AK24" s="89">
+      <c r="AK24" s="110">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="AL24" s="85" t="s">
+      <c r="AL24" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM24" s="83" t="s">
+      <c r="AM24" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="AN24" s="81" t="s">
+      <c r="AN24" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="AO24" s="81" t="s">
+      <c r="AO24" s="118" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="96"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="94"/>
+    <row r="25" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A25" s="103"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="91"/>
       <c r="L25" s="37"/>
       <c r="M25" s="50" t="s">
         <v>248</v>
@@ -6761,63 +6763,63 @@
       <c r="R25" s="53">
         <v>24</v>
       </c>
-      <c r="S25" s="123"/>
-      <c r="T25" s="76"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="105"/>
       <c r="U25" s="37"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="76"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="105"/>
       <c r="AI25" s="37"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="111"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="119"/>
+      <c r="AO25" s="119"/>
     </row>
-    <row r="26" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="95">
+    <row r="26" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="102">
         <v>13</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="94" t="s">
         <v>311</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="96" t="s">
         <v>312</v>
       </c>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="F26" s="111" t="s">
+      <c r="F26" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="107" t="s">
+      <c r="H26" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="I26" s="93">
+      <c r="I26" s="90">
         <f t="shared" ref="I26" si="21">LEN(H26)</f>
         <v>22</v>
       </c>
-      <c r="J26" s="109" t="s">
+      <c r="J26" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="90">
         <f t="shared" ref="K26" si="22">LEN(J26)</f>
         <v>104</v>
       </c>
@@ -6843,88 +6845,88 @@
       <c r="R26" s="53">
         <v>7</v>
       </c>
-      <c r="S26" s="79" t="s">
+      <c r="S26" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="T26" s="75">
+      <c r="T26" s="104">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="U26" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V26" s="79" t="s">
+      <c r="V26" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="W26" s="75">
+      <c r="W26" s="104">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="X26" s="77">
+      <c r="X26" s="69">
         <v>6</v>
       </c>
-      <c r="Y26" s="77" t="s">
+      <c r="Y26" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="Z26" s="77" t="s">
+      <c r="Z26" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AA26" s="77" t="s">
+      <c r="AA26" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AB26" s="77" t="s">
+      <c r="AB26" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="AC26" s="77" t="s">
+      <c r="AC26" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="AD26" s="77" t="s">
+      <c r="AD26" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="79" t="s">
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="65" t="s">
         <v>438</v>
       </c>
-      <c r="AH26" s="75">
+      <c r="AH26" s="104">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="AI26" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ26" s="122" t="s">
+      <c r="AJ26" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="AK26" s="89">
+      <c r="AK26" s="110">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="AL26" s="85" t="s">
+      <c r="AL26" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AM26" s="83" t="s">
+      <c r="AM26" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="AN26" s="81" t="s">
+      <c r="AN26" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="AO26" s="81" t="s">
+      <c r="AO26" s="118" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="96"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="94"/>
+    <row r="27" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A27" s="103"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="91"/>
       <c r="L27" s="37"/>
       <c r="M27" s="50" t="s">
         <v>165</v>
@@ -6933,7 +6935,7 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="O27" s="126" t="s">
+      <c r="O27" s="63" t="s">
         <v>387</v>
       </c>
       <c r="P27" s="53">
@@ -6945,63 +6947,63 @@
       <c r="R27" s="53">
         <v>24</v>
       </c>
-      <c r="S27" s="80"/>
-      <c r="T27" s="76"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="105"/>
       <c r="U27" s="37"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="76"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="105"/>
       <c r="AI27" s="37"/>
-      <c r="AJ27" s="123"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="86"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="111"/>
+      <c r="AL27" s="113"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="119"/>
+      <c r="AO27" s="119"/>
     </row>
-    <row r="28" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="95">
+    <row r="28" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="102">
         <v>14</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="E28" s="101" t="s">
+      <c r="E28" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="107" t="s">
+      <c r="H28" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="93">
+      <c r="I28" s="90">
         <f t="shared" ref="I28" si="23">LEN(H28)</f>
         <v>33</v>
       </c>
-      <c r="J28" s="109" t="s">
+      <c r="J28" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="93">
+      <c r="K28" s="90">
         <f t="shared" ref="K28" si="24">LEN(J28)</f>
         <v>111</v>
       </c>
@@ -7027,92 +7029,92 @@
       <c r="R28" s="53">
         <v>10</v>
       </c>
-      <c r="S28" s="79" t="s">
+      <c r="S28" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="T28" s="75">
+      <c r="T28" s="104">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="U28" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="V28" s="79" t="s">
+      <c r="V28" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="W28" s="75">
+      <c r="W28" s="104">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="X28" s="77">
+      <c r="X28" s="69">
         <v>8</v>
       </c>
-      <c r="Y28" s="77" t="s">
+      <c r="Y28" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="Z28" s="77" t="s">
+      <c r="Z28" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AA28" s="77" t="s">
+      <c r="AA28" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AB28" s="77" t="s">
+      <c r="AB28" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="AC28" s="77" t="s">
+      <c r="AC28" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="AD28" s="77" t="s">
+      <c r="AD28" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="AE28" s="77" t="s">
+      <c r="AE28" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="AF28" s="77" t="s">
+      <c r="AF28" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="AG28" s="79" t="s">
+      <c r="AG28" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="AH28" s="75">
+      <c r="AH28" s="104">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="AI28" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="AJ28" s="79" t="s">
+      <c r="AJ28" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="AK28" s="89">
+      <c r="AK28" s="110">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="AL28" s="85" t="s">
+      <c r="AL28" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AM28" s="83" t="s">
+      <c r="AM28" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="AN28" s="81" t="s">
+      <c r="AN28" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="AO28" s="81" t="s">
+      <c r="AO28" s="118" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="96"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="94"/>
+    <row r="29" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A29" s="103"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="91"/>
       <c r="L29" s="37"/>
       <c r="M29" s="50" t="s">
         <v>341</v>
@@ -7133,63 +7135,63 @@
       <c r="R29" s="53">
         <v>35</v>
       </c>
-      <c r="S29" s="80"/>
-      <c r="T29" s="76"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="105"/>
       <c r="U29" s="46"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="76"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="105"/>
       <c r="AI29" s="37"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="111"/>
+      <c r="AL29" s="113"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="119"/>
+      <c r="AO29" s="119"/>
     </row>
-    <row r="30" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="95">
+    <row r="30" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="102">
         <v>15</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="F30" s="111" t="s">
+      <c r="F30" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="107" t="s">
+      <c r="H30" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="93">
+      <c r="I30" s="90">
         <f t="shared" ref="I30" si="25">LEN(H30)</f>
         <v>28</v>
       </c>
-      <c r="J30" s="109" t="s">
+      <c r="J30" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="K30" s="93">
+      <c r="K30" s="90">
         <f t="shared" ref="K30" si="26">LEN(J30)</f>
         <v>93</v>
       </c>
@@ -7215,92 +7217,92 @@
       <c r="R30" s="53">
         <v>7</v>
       </c>
-      <c r="S30" s="79" t="s">
+      <c r="S30" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="T30" s="75">
+      <c r="T30" s="104">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="U30" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="V30" s="79" t="s">
+      <c r="V30" s="65" t="s">
         <v>415</v>
       </c>
-      <c r="W30" s="75">
+      <c r="W30" s="104">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="X30" s="77">
+      <c r="X30" s="69">
         <v>8</v>
       </c>
-      <c r="Y30" s="77" t="s">
+      <c r="Y30" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="Z30" s="77" t="s">
+      <c r="Z30" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AA30" s="77" t="s">
+      <c r="AA30" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="AB30" s="77" t="s">
+      <c r="AB30" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="AC30" s="77" t="s">
+      <c r="AC30" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="AD30" s="77" t="s">
+      <c r="AD30" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="AE30" s="77" t="s">
+      <c r="AE30" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="AF30" s="77" t="s">
+      <c r="AF30" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="AG30" s="79" t="s">
+      <c r="AG30" s="65" t="s">
         <v>440</v>
       </c>
-      <c r="AH30" s="75">
+      <c r="AH30" s="104">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="AI30" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ30" s="79" t="s">
+      <c r="AJ30" s="65" t="s">
         <v>455</v>
       </c>
-      <c r="AK30" s="89">
+      <c r="AK30" s="110">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="AL30" s="85" t="s">
+      <c r="AL30" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AM30" s="83" t="s">
+      <c r="AM30" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="AN30" s="81" t="s">
+      <c r="AN30" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="AO30" s="81" t="s">
+      <c r="AO30" s="118" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="96"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="94"/>
+    <row r="31" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A31" s="103"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="91"/>
       <c r="L31" s="37"/>
       <c r="M31" s="50" t="s">
         <v>193</v>
@@ -7321,63 +7323,63 @@
       <c r="R31" s="53">
         <v>25</v>
       </c>
-      <c r="S31" s="80"/>
-      <c r="T31" s="76"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="105"/>
       <c r="U31" s="37"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="78"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="76"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="105"/>
       <c r="AI31" s="37"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="86"/>
-      <c r="AM31" s="84"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="111"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="119"/>
+      <c r="AO31" s="119"/>
     </row>
-    <row r="32" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="95">
+    <row r="32" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="102">
         <v>16</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="97" t="s">
+      <c r="C32" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="96" t="s">
         <v>321</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="F32" s="111" t="s">
+      <c r="F32" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="93" t="s">
+      <c r="G32" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="H32" s="107" t="s">
+      <c r="H32" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="I32" s="93">
+      <c r="I32" s="90">
         <f t="shared" ref="I32" si="27">LEN(H32)</f>
         <v>32</v>
       </c>
-      <c r="J32" s="109" t="s">
+      <c r="J32" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K32" s="90">
         <f t="shared" ref="K32" si="28">LEN(J32)</f>
         <v>105</v>
       </c>
@@ -7403,86 +7405,86 @@
       <c r="R32" s="53">
         <v>4</v>
       </c>
-      <c r="S32" s="79" t="s">
+      <c r="S32" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="75">
+      <c r="T32" s="104">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="U32" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V32" s="122" t="s">
+      <c r="V32" s="67" t="s">
         <v>416</v>
       </c>
-      <c r="W32" s="75">
+      <c r="W32" s="104">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="X32" s="77">
+      <c r="X32" s="69">
         <v>5</v>
       </c>
-      <c r="Y32" s="77" t="s">
+      <c r="Y32" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" s="77" t="s">
+      <c r="Z32" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AA32" s="77" t="s">
+      <c r="AA32" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="AB32" s="77" t="s">
+      <c r="AB32" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AC32" s="77" t="s">
+      <c r="AC32" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="79" t="s">
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="AH32" s="75">
+      <c r="AH32" s="104">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="AI32" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ32" s="79" t="s">
+      <c r="AJ32" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="AK32" s="89">
+      <c r="AK32" s="110">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="AL32" s="85" t="s">
+      <c r="AL32" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM32" s="83" t="s">
+      <c r="AM32" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="AN32" s="81" t="s">
+      <c r="AN32" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="AO32" s="81" t="s">
+      <c r="AO32" s="118" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="96"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="94"/>
+    <row r="33" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A33" s="103"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="91"/>
       <c r="L33" s="37"/>
       <c r="M33" s="50" t="s">
         <v>342</v>
@@ -7503,63 +7505,63 @@
       <c r="R33" s="53">
         <v>34</v>
       </c>
-      <c r="S33" s="80"/>
-      <c r="T33" s="76"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="105"/>
       <c r="U33" s="37"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="76"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="105"/>
       <c r="AI33" s="37"/>
-      <c r="AJ33" s="80"/>
-      <c r="AK33" s="90"/>
-      <c r="AL33" s="86"/>
-      <c r="AM33" s="84"/>
-      <c r="AN33" s="82"/>
-      <c r="AO33" s="82"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="111"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="119"/>
     </row>
-    <row r="34" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="95">
+    <row r="34" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="102">
         <v>17</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="94" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="96" t="s">
         <v>324</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E34" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="111" t="s">
+      <c r="F34" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="107" t="s">
+      <c r="H34" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="I34" s="93">
+      <c r="I34" s="90">
         <f t="shared" ref="I34" si="29">LEN(H34)</f>
         <v>34</v>
       </c>
-      <c r="J34" s="109" t="s">
+      <c r="J34" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K34" s="90">
         <f t="shared" ref="K34" si="30">LEN(J34)</f>
         <v>75</v>
       </c>
@@ -7585,86 +7587,86 @@
       <c r="R34" s="53">
         <v>6</v>
       </c>
-      <c r="S34" s="79" t="s">
+      <c r="S34" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="T34" s="75">
+      <c r="T34" s="104">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="U34" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V34" s="79" t="s">
+      <c r="V34" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="W34" s="75">
+      <c r="W34" s="104">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="X34" s="77">
+      <c r="X34" s="69">
         <v>5</v>
       </c>
-      <c r="Y34" s="77" t="s">
+      <c r="Y34" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="Z34" s="77" t="s">
+      <c r="Z34" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AA34" s="77" t="s">
+      <c r="AA34" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AB34" s="77" t="s">
+      <c r="AB34" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="AC34" s="77" t="s">
+      <c r="AC34" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="77"/>
-      <c r="AG34" s="79" t="s">
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="69"/>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="65" t="s">
         <v>441</v>
       </c>
-      <c r="AH34" s="75">
+      <c r="AH34" s="104">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="AI34" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ34" s="79" t="s">
+      <c r="AJ34" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="AK34" s="89">
+      <c r="AK34" s="110">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="AL34" s="85" t="s">
+      <c r="AL34" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AM34" s="83" t="s">
+      <c r="AM34" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AN34" s="81" t="s">
+      <c r="AN34" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="AO34" s="81" t="s">
+      <c r="AO34" s="118" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="96"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="94"/>
+    <row r="35" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A35" s="103"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="91"/>
       <c r="L35" s="37"/>
       <c r="M35" s="50" t="s">
         <v>344</v>
@@ -7685,63 +7687,63 @@
       <c r="R35" s="53">
         <v>18</v>
       </c>
-      <c r="S35" s="80"/>
-      <c r="T35" s="76"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="105"/>
       <c r="U35" s="37"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="78"/>
-      <c r="AC35" s="78"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="78"/>
-      <c r="AF35" s="78"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="76"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="70"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="70"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="70"/>
+      <c r="AF35" s="70"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="105"/>
       <c r="AI35" s="37"/>
-      <c r="AJ35" s="80"/>
-      <c r="AK35" s="90"/>
-      <c r="AL35" s="86"/>
-      <c r="AM35" s="84"/>
-      <c r="AN35" s="82"/>
-      <c r="AO35" s="82"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="111"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="117"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
     </row>
-    <row r="36" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="95">
+    <row r="36" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="102">
         <v>18</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="101" t="s">
+      <c r="E36" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="F36" s="111" t="s">
+      <c r="F36" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="93" t="s">
+      <c r="G36" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="H36" s="107" t="s">
+      <c r="H36" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="I36" s="93">
+      <c r="I36" s="90">
         <f t="shared" ref="I36" si="31">LEN(H36)</f>
         <v>31</v>
       </c>
-      <c r="J36" s="109" t="s">
+      <c r="J36" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="K36" s="93">
+      <c r="K36" s="90">
         <f t="shared" ref="K36" si="32">LEN(J36)</f>
         <v>101</v>
       </c>
@@ -7767,86 +7769,86 @@
       <c r="R36" s="53">
         <v>6</v>
       </c>
-      <c r="S36" s="79" t="s">
+      <c r="S36" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="T36" s="75">
+      <c r="T36" s="104">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="U36" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V36" s="79" t="s">
+      <c r="V36" s="65" t="s">
         <v>418</v>
       </c>
-      <c r="W36" s="75">
+      <c r="W36" s="104">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="X36" s="77">
+      <c r="X36" s="69">
         <v>5</v>
       </c>
-      <c r="Y36" s="77" t="s">
+      <c r="Y36" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="Z36" s="77" t="s">
+      <c r="Z36" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="AA36" s="77" t="s">
+      <c r="AA36" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="AB36" s="77" t="s">
+      <c r="AB36" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AC36" s="77" t="s">
+      <c r="AC36" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="AD36" s="77"/>
-      <c r="AE36" s="77"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="79" t="s">
+      <c r="AD36" s="69"/>
+      <c r="AE36" s="69"/>
+      <c r="AF36" s="69"/>
+      <c r="AG36" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="AH36" s="75">
+      <c r="AH36" s="104">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="AI36" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AJ36" s="79" t="s">
+      <c r="AJ36" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="AK36" s="89">
+      <c r="AK36" s="110">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="AL36" s="85" t="s">
+      <c r="AL36" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AM36" s="83" t="s">
+      <c r="AM36" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="AN36" s="81" t="s">
+      <c r="AN36" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="AO36" s="81" t="s">
+      <c r="AO36" s="118" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="96"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="94"/>
+    <row r="37" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A37" s="103"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="91"/>
       <c r="L37" s="37"/>
       <c r="M37" s="50" t="s">
         <v>345</v>
@@ -7867,63 +7869,63 @@
       <c r="R37" s="53">
         <v>26</v>
       </c>
-      <c r="S37" s="80"/>
-      <c r="T37" s="76"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="105"/>
       <c r="U37" s="37"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="78"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="80"/>
-      <c r="AH37" s="76"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="105"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="70"/>
+      <c r="AF37" s="70"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="105"/>
       <c r="AI37" s="37"/>
-      <c r="AJ37" s="80"/>
-      <c r="AK37" s="90"/>
-      <c r="AL37" s="86"/>
-      <c r="AM37" s="84"/>
-      <c r="AN37" s="82"/>
-      <c r="AO37" s="82"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="111"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="117"/>
+      <c r="AN37" s="119"/>
+      <c r="AO37" s="119"/>
     </row>
-    <row r="38" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="95">
+    <row r="38" spans="1:41" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="102">
         <v>19</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C38" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="96" t="s">
         <v>331</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="F38" s="111" t="s">
+      <c r="F38" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="93" t="s">
+      <c r="G38" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="107" t="s">
+      <c r="H38" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="I38" s="93">
+      <c r="I38" s="90">
         <f t="shared" ref="I38" si="33">LEN(H38)</f>
         <v>30</v>
       </c>
-      <c r="J38" s="109" t="s">
+      <c r="J38" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="K38" s="93">
+      <c r="K38" s="90">
         <f t="shared" ref="K38" si="34">LEN(J38)</f>
         <v>104</v>
       </c>
@@ -7949,88 +7951,88 @@
       <c r="R38" s="53">
         <v>7</v>
       </c>
-      <c r="S38" s="79" t="s">
+      <c r="S38" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="T38" s="75">
+      <c r="T38" s="104">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="U38" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="V38" s="79" t="s">
+      <c r="V38" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="W38" s="75">
+      <c r="W38" s="104">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="X38" s="77">
+      <c r="X38" s="69">
         <v>6</v>
       </c>
-      <c r="Y38" s="77" t="s">
+      <c r="Y38" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="Z38" s="77" t="s">
+      <c r="Z38" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="AA38" s="77" t="s">
+      <c r="AA38" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="AB38" s="77" t="s">
+      <c r="AB38" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="AC38" s="77" t="s">
+      <c r="AC38" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="AD38" s="77" t="s">
+      <c r="AD38" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="AE38" s="77"/>
-      <c r="AF38" s="77"/>
-      <c r="AG38" s="79" t="s">
+      <c r="AE38" s="69"/>
+      <c r="AF38" s="69"/>
+      <c r="AG38" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="AH38" s="75">
+      <c r="AH38" s="104">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="AI38" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ38" s="79" t="s">
+      <c r="AJ38" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="AK38" s="89">
+      <c r="AK38" s="110">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="AL38" s="87" t="s">
+      <c r="AL38" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="AM38" s="83" t="s">
+      <c r="AM38" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="AN38" s="81" t="s">
+      <c r="AN38" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="AO38" s="81" t="s">
+      <c r="AO38" s="118" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="96"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="94"/>
+    <row r="39" spans="1:41" s="22" customFormat="1" ht="60" customHeight="1">
+      <c r="A39" s="103"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="91"/>
       <c r="L39" s="37"/>
       <c r="M39" s="50" t="s">
         <v>230</v>
@@ -8051,31 +8053,31 @@
       <c r="R39" s="53">
         <v>23</v>
       </c>
-      <c r="S39" s="80"/>
-      <c r="T39" s="76"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="105"/>
       <c r="U39" s="37"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="78"/>
-      <c r="AA39" s="78"/>
-      <c r="AB39" s="78"/>
-      <c r="AC39" s="78"/>
-      <c r="AD39" s="78"/>
-      <c r="AE39" s="78"/>
-      <c r="AF39" s="78"/>
-      <c r="AG39" s="80"/>
-      <c r="AH39" s="76"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="70"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="105"/>
       <c r="AI39" s="37"/>
-      <c r="AJ39" s="80"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="84"/>
-      <c r="AN39" s="82"/>
-      <c r="AO39" s="82"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="111"/>
+      <c r="AL39" s="115"/>
+      <c r="AM39" s="117"/>
+      <c r="AN39" s="119"/>
+      <c r="AO39" s="119"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:41">
       <c r="A40" s="31"/>
       <c r="B40" s="40"/>
       <c r="C40" s="41"/>
@@ -8118,30 +8120,30 @@
       <c r="AN40" s="32"/>
       <c r="AO40" s="32"/>
     </row>
-    <row r="41" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:41" ht="22.25" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="16"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="65"/>
+      <c r="D41" s="120"/>
       <c r="E41" s="34"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="124"/>
       <c r="L41" s="37"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="69"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="124"/>
       <c r="U41" s="37"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="69"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="124"/>
       <c r="X41" s="38"/>
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
@@ -8151,38 +8153,38 @@
       <c r="AD41" s="37"/>
       <c r="AE41" s="37"/>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="69"/>
+      <c r="AG41" s="123"/>
+      <c r="AH41" s="124"/>
       <c r="AI41" s="37"/>
-      <c r="AJ41" s="68" t="s">
+      <c r="AJ41" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="AK41" s="69"/>
+      <c r="AK41" s="124"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:41">
       <c r="A42" s="34"/>
       <c r="B42" s="16"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="66"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="34"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="71"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="126"/>
       <c r="L42" s="37"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="71"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="129"/>
+      <c r="P42" s="129"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="126"/>
       <c r="U42" s="37"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="71"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="126"/>
       <c r="X42" s="38"/>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
@@ -8192,36 +8194,36 @@
       <c r="AD42" s="37"/>
       <c r="AE42" s="37"/>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="70"/>
-      <c r="AH42" s="71"/>
+      <c r="AG42" s="125"/>
+      <c r="AH42" s="126"/>
       <c r="AI42" s="37"/>
-      <c r="AJ42" s="70"/>
-      <c r="AK42" s="71"/>
+      <c r="AJ42" s="125"/>
+      <c r="AK42" s="126"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:41">
       <c r="A43" s="34"/>
       <c r="B43" s="16"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="66"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="34"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="71"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="126"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="71"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="126"/>
       <c r="U43" s="37"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="71"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="126"/>
       <c r="X43" s="38"/>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
@@ -8231,36 +8233,36 @@
       <c r="AD43" s="37"/>
       <c r="AE43" s="37"/>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="70"/>
-      <c r="AH43" s="71"/>
+      <c r="AG43" s="125"/>
+      <c r="AH43" s="126"/>
       <c r="AI43" s="37"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="71"/>
+      <c r="AJ43" s="125"/>
+      <c r="AK43" s="126"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:41">
       <c r="A44" s="34"/>
       <c r="B44" s="16"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="66"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="34"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="71"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="126"/>
       <c r="L44" s="37"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="71"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="129"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="126"/>
       <c r="U44" s="37"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="71"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="126"/>
       <c r="X44" s="38"/>
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
@@ -8270,36 +8272,36 @@
       <c r="AD44" s="37"/>
       <c r="AE44" s="37"/>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="70"/>
-      <c r="AH44" s="71"/>
+      <c r="AG44" s="125"/>
+      <c r="AH44" s="126"/>
       <c r="AI44" s="37"/>
-      <c r="AJ44" s="70"/>
-      <c r="AK44" s="71"/>
+      <c r="AJ44" s="125"/>
+      <c r="AK44" s="126"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:41">
       <c r="A45" s="34"/>
       <c r="B45" s="16"/>
       <c r="C45" s="35"/>
-      <c r="D45" s="67"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="34"/>
       <c r="F45" s="35"/>
       <c r="G45" s="34"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="73"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="128"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="73"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="129"/>
+      <c r="P45" s="129"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="128"/>
       <c r="U45" s="37"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="73"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="128"/>
       <c r="X45" s="38"/>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
@@ -8309,99 +8311,543 @@
       <c r="AD45" s="37"/>
       <c r="AE45" s="37"/>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="73"/>
+      <c r="AG45" s="127"/>
+      <c r="AH45" s="128"/>
       <c r="AI45" s="37"/>
-      <c r="AJ45" s="72"/>
-      <c r="AK45" s="73"/>
+      <c r="AJ45" s="127"/>
+      <c r="AK45" s="128"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:41">
       <c r="AG47" s="33"/>
     </row>
-    <row r="50" spans="33:34" x14ac:dyDescent="0.4">
+    <row r="50" spans="33:34">
       <c r="AG50" s="34"/>
       <c r="AH50" s="35"/>
     </row>
-    <row r="51" spans="33:34" x14ac:dyDescent="0.4">
+    <row r="51" spans="33:34">
       <c r="AG51" s="34"/>
       <c r="AH51" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="617">
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="S41:T45"/>
+    <mergeCell ref="V41:W45"/>
+    <mergeCell ref="AG41:AH45"/>
+    <mergeCell ref="AJ41:AK45"/>
+    <mergeCell ref="M41:R45"/>
+    <mergeCell ref="J41:K45"/>
+    <mergeCell ref="H41:I45"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AN24:AN25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AN32:AN33"/>
+    <mergeCell ref="AO32:AO33"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AM38:AM39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AN38:AN39"/>
+    <mergeCell ref="AN36:AN37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="AM26:AM27"/>
+    <mergeCell ref="AM28:AM29"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AM32:AM33"/>
+    <mergeCell ref="AM34:AM35"/>
+    <mergeCell ref="AN28:AN29"/>
+    <mergeCell ref="AO28:AO29"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AN26:AN27"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="Y38:Y39"/>
     <mergeCell ref="X28:X29"/>
     <mergeCell ref="AD34:AD35"/>
     <mergeCell ref="AD36:AD37"/>
@@ -8426,525 +8872,81 @@
     <mergeCell ref="AC34:AC35"/>
     <mergeCell ref="Y30:Y31"/>
     <mergeCell ref="X30:X31"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AH36:AH37"/>
-    <mergeCell ref="AH38:AH39"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AL28:AL29"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AL38:AL39"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AM22:AM23"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AM38:AM39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AN38:AN39"/>
-    <mergeCell ref="AN36:AN37"/>
-    <mergeCell ref="AO36:AO37"/>
-    <mergeCell ref="AM26:AM27"/>
-    <mergeCell ref="AM28:AM29"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AM32:AM33"/>
-    <mergeCell ref="AM34:AM35"/>
-    <mergeCell ref="AN28:AN29"/>
-    <mergeCell ref="AO28:AO29"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AN26:AN27"/>
-    <mergeCell ref="AN24:AN25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AN34:AN35"/>
-    <mergeCell ref="AN32:AN33"/>
-    <mergeCell ref="AO32:AO33"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AO20:AO21"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
     <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="S41:T45"/>
-    <mergeCell ref="V41:W45"/>
-    <mergeCell ref="AG41:AH45"/>
-    <mergeCell ref="AJ41:AK45"/>
-    <mergeCell ref="M41:R45"/>
-    <mergeCell ref="J41:K45"/>
-    <mergeCell ref="H41:I45"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AJ24:AJ25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.82677165354330717" right="0.23622047244094491" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8966,18 +8968,18 @@
       <selection pane="topRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.75" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.75" style="6" customWidth="1"/>
-    <col min="3" max="4" width="20.75" style="8" customWidth="1"/>
-    <col min="5" max="20" width="10.75" style="5" customWidth="1"/>
-    <col min="21" max="24" width="10.75" style="26" customWidth="1"/>
-    <col min="25" max="61" width="10.75" style="5" customWidth="1"/>
-    <col min="62" max="16384" width="25.75" style="5"/>
+    <col min="1" max="1" width="10.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="8" customWidth="1"/>
+    <col min="5" max="20" width="10.6640625" style="5" customWidth="1"/>
+    <col min="21" max="24" width="10.6640625" style="26" customWidth="1"/>
+    <col min="25" max="61" width="10.6640625" style="5" customWidth="1"/>
+    <col min="62" max="16384" width="25.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:61" s="10" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="20"/>
       <c r="B1" s="21" t="s">
         <v>232</v>
@@ -9160,7 +9162,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:61" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:61" s="10" customFormat="1" ht="29.5" customHeight="1">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="E2" s="10">
@@ -9335,7 +9337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:61" ht="70.25" customHeight="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -9416,7 +9418,7 @@
       <c r="BH3" s="13"/>
       <c r="BI3" s="13"/>
     </row>
-    <row r="4" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:61" ht="70.25" customHeight="1">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -9493,7 +9495,7 @@
       <c r="BH4" s="13"/>
       <c r="BI4" s="13"/>
     </row>
-    <row r="5" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:61" ht="70.25" customHeight="1">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -9578,7 +9580,7 @@
       <c r="BH5" s="13"/>
       <c r="BI5" s="13"/>
     </row>
-    <row r="6" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:61" ht="70.25" customHeight="1">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -9663,7 +9665,7 @@
       <c r="BH6" s="13"/>
       <c r="BI6" s="13"/>
     </row>
-    <row r="7" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:61" ht="70.25" customHeight="1">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -9746,7 +9748,7 @@
       <c r="BH7" s="13"/>
       <c r="BI7" s="13"/>
     </row>
-    <row r="8" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:61" ht="70.25" customHeight="1">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -9829,7 +9831,7 @@
       <c r="BH8" s="13"/>
       <c r="BI8" s="13"/>
     </row>
-    <row r="9" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:61" ht="70.25" customHeight="1">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -9912,7 +9914,7 @@
       <c r="BH9" s="13"/>
       <c r="BI9" s="13"/>
     </row>
-    <row r="10" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:61" ht="70.25" customHeight="1">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -9995,7 +9997,7 @@
       </c>
       <c r="BI10" s="13"/>
     </row>
-    <row r="11" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:61" ht="70.25" customHeight="1">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -10076,7 +10078,7 @@
       <c r="BH11" s="13"/>
       <c r="BI11" s="13"/>
     </row>
-    <row r="12" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:61" ht="70.25" customHeight="1">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -10157,7 +10159,7 @@
       <c r="BH12" s="13"/>
       <c r="BI12" s="13"/>
     </row>
-    <row r="13" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:61" ht="70.25" customHeight="1">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -10238,7 +10240,7 @@
       <c r="BH13" s="13"/>
       <c r="BI13" s="13"/>
     </row>
-    <row r="14" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:61" ht="70.25" customHeight="1">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -10319,7 +10321,7 @@
       <c r="BH14" s="13"/>
       <c r="BI14" s="13"/>
     </row>
-    <row r="15" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:61" ht="70.25" customHeight="1">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -10402,7 +10404,7 @@
       <c r="BH15" s="13"/>
       <c r="BI15" s="13"/>
     </row>
-    <row r="16" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:61" ht="70.25" customHeight="1">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -10489,7 +10491,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:61" ht="70.25" customHeight="1">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -10580,7 +10582,7 @@
       </c>
       <c r="BI17" s="25"/>
     </row>
-    <row r="18" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:61" ht="70.25" customHeight="1">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -10661,7 +10663,7 @@
       </c>
       <c r="BI18" s="13"/>
     </row>
-    <row r="19" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:61" ht="70.25" customHeight="1">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -10742,7 +10744,7 @@
       <c r="BH19" s="13"/>
       <c r="BI19" s="13"/>
     </row>
-    <row r="20" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:61" ht="70.25" customHeight="1">
       <c r="A20" s="17">
         <v>18</v>
       </c>
@@ -10823,7 +10825,7 @@
       <c r="BH20" s="13"/>
       <c r="BI20" s="13"/>
     </row>
-    <row r="21" spans="1:61" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:61" ht="70.25" customHeight="1">
       <c r="A21" s="17">
         <v>19</v>
       </c>
@@ -10914,21 +10916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010015E05B0B3D1590489A7FB44CD44BEF6D" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d41757872260ba9d064883ae228e85d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69cbc9ba-3c12-4daf-978e-8ee90c2cacd1" xmlns:ns3="b2fda891-4f5d-4326-9f77-b26407c0a029" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd2fa029cefe4a8f0e3531b4f4c17d67" ns2:_="" ns3:_="">
     <xsd:import namespace="69cbc9ba-3c12-4daf-978e-8ee90c2cacd1"/>
@@ -11093,24 +11080,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AB8EAF-D3FD-401A-B6AD-C696CE332B43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D228D9-9B1C-4D13-AA85-65499C0A92D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0399F32D-FADF-4DD8-9D81-68DACD98F8C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11127,4 +11112,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D228D9-9B1C-4D13-AA85-65499C0A92D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7AB8EAF-D3FD-401A-B6AD-C696CE332B43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>